--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_4_25.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_4_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1508556.749339974</v>
+        <v>1470520.133158698</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7956703.636481816</v>
+        <v>7956703.636481811</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8417072.620618416</v>
+        <v>8417072.620618414</v>
       </c>
     </row>
     <row r="11">
@@ -667,13 +667,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>99.73835480560622</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>274.2838073416025</v>
+        <v>7.293863480540836</v>
       </c>
       <c r="G2" t="n">
-        <v>274.2838073416025</v>
+        <v>14.85476540383092</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -682,7 +682,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>0.6592771345624158</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -709,16 +709,16 @@
         <v>141.8508227008771</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>205.8649517235392</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>222.9651171964204</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.4777635765444</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>219.4740383149756</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -740,22 +740,22 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.0232102050423</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>110.4625155221328</v>
       </c>
       <c r="I3" t="n">
         <v>86.50354346547167</v>
@@ -788,19 +788,19 @@
         <v>94.69497976109122</v>
       </c>
       <c r="S3" t="n">
-        <v>168.9616139056444</v>
+        <v>20.07867728478316</v>
       </c>
       <c r="T3" t="n">
-        <v>198.3825319082687</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>224.6571770672012</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>231.9087310396551</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>59.33202238395851</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.3365529312023</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -843,7 +843,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>11.57657371040602</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>178.9131266416084</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -898,10 +898,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>160.8447136639815</v>
       </c>
       <c r="D5" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -910,16 +910,16 @@
         <v>7.293863480540836</v>
       </c>
       <c r="G5" t="n">
-        <v>14.85476540383092</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="H5" t="n">
-        <v>88.34097466422773</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>205.224307868124</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>0.6592771345624158</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -943,22 +943,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>222.9651171964204</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.4777635765444</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -983,19 +983,19 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>22.86005258066763</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>86.50354346547167</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1025,22 +1025,22 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>168.9616139056444</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>198.3825319082687</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>148.7893443613539</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>249.98934675</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y6" t="n">
         <v>203.671151418586</v>
@@ -1059,10 +1059,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>149.0055665145194</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>29.90756012708899</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1101,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>173.3911476697823</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>5.521978971826058</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>219.4405486221115</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1141,7 +1141,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>237.214847643272</v>
       </c>
       <c r="F8" t="n">
         <v>7.293863480540836</v>
@@ -1153,10 +1153,10 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>205.224307868124</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>0.6592771345624158</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1180,28 +1180,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>205.8649517235392</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.4777635765444</v>
       </c>
       <c r="V8" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1211,25 +1211,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>114.7736570458747</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>136.0232102050423</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>110.4625155221328</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>86.50354346547167</v>
@@ -1268,19 +1268,19 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>249.98934675</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>66.92017160048461</v>
       </c>
     </row>
     <row r="10">
@@ -1296,10 +1296,10 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>31.93850246840919</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.9746241731992</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1308,16 +1308,16 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>161.6340720089168</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>2.504644914858158</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>14.77440971783335</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1369,13 +1369,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1384,13 +1384,13 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G11" t="n">
-        <v>413.6097194764729</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>325.3930767845979</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>157.2246747536534</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1417,28 +1417,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>63.64170646647293</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>177.493467653868</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.5149286494106</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.3781599023558</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>328.5332215225193</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>117.9287471893071</v>
+        <v>187.8627930913168</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="12">
@@ -1466,10 +1466,10 @@
         <v>135.3570519053243</v>
       </c>
       <c r="H12" t="n">
-        <v>104.0288287853823</v>
+        <v>75.67504324679705</v>
       </c>
       <c r="I12" t="n">
-        <v>63.56783007605711</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,10 +1496,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>53.33473024000173</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>11.33166980843018</v>
+        <v>156.5880156630749</v>
       </c>
       <c r="T12" t="n">
         <v>195.6974464808964</v>
@@ -1551,7 +1551,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>2.696742040683396</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1572,25 +1572,25 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>32.9952185368712</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>148.2796428708918</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>212.6245410698995</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>225.9462130081922</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.0218075870219</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>50.42797305210066</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1609,10 +1609,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D14" t="n">
-        <v>63.34393295653891</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E14" t="n">
         <v>383.1180357552875</v>
@@ -1621,13 +1621,13 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G14" t="n">
-        <v>413.6097194764729</v>
+        <v>148.5835281355439</v>
       </c>
       <c r="H14" t="n">
-        <v>325.3930767845979</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>157.2246747536534</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1654,10 +1654,10 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>63.64170646647294</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>177.493467653868</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>217.5149286494106</v>
@@ -1666,7 +1666,7 @@
         <v>251.3781599023558</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1694,19 +1694,19 @@
         <v>146.1124235746456</v>
       </c>
       <c r="E15" t="n">
-        <v>154.2833199360786</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G15" t="n">
-        <v>135.3570519053243</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>104.0288287853823</v>
       </c>
       <c r="I15" t="n">
-        <v>63.56783007605712</v>
+        <v>53.66853612673688</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1776,19 +1776,19 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>112.2252571302024</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>167.3311041893321</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>156.6686349500177</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>136.9633875020681</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>49.35397375491781</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1821,13 +1821,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.0218075870219</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.9363510669392</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>83.58419887257701</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1843,16 +1843,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>49.7823671951049</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>366.9850956789426</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>383.1180357552875</v>
+        <v>205.6361182546273</v>
       </c>
       <c r="F17" t="n">
         <v>407.2938634805408</v>
@@ -1864,7 +1864,7 @@
         <v>325.3930767845979</v>
       </c>
       <c r="I17" t="n">
-        <v>157.2246747536534</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1906,13 +1906,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="18">
@@ -1922,7 +1922,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>165.3721256103448</v>
+        <v>20.11577975570017</v>
       </c>
       <c r="C18" t="n">
         <v>171.025583927401</v>
@@ -1937,7 +1937,7 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>135.3570519053243</v>
       </c>
       <c r="H18" t="n">
         <v>104.0288287853823</v>
@@ -1976,7 +1976,7 @@
         <v>156.5880156630749</v>
       </c>
       <c r="T18" t="n">
-        <v>185.7981525315759</v>
+        <v>195.6974464808964</v>
       </c>
       <c r="U18" t="n">
         <v>224.6133508632724</v>
@@ -2013,16 +2013,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>128.584012348249</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>167.3311041893321</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>156.6686349500177</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>136.9633875020681</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2046,10 +2046,10 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>32.99521853687121</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>50.42797305210072</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2058,13 +2058,13 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.0218075870219</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2083,16 +2083,16 @@
         <v>383.716409991395</v>
       </c>
       <c r="C20" t="n">
-        <v>366.9850956789426</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>172.1810765857338</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G20" t="n">
         <v>413.6097194764729</v>
@@ -2101,7 +2101,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>157.2246747536534</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2128,28 +2128,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>63.64170646647294</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>217.5149286494106</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>114.7248662930972</v>
       </c>
       <c r="V20" t="n">
-        <v>328.5332215225193</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="21">
@@ -2177,7 +2177,7 @@
         <v>135.3570519053243</v>
       </c>
       <c r="H21" t="n">
-        <v>22.34031300679495</v>
+        <v>75.67504324679705</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>53.33473024000174</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>156.5880156630749</v>
@@ -2256,10 +2256,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>156.6686349500177</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>104.969538635729</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2283,10 +2283,10 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>32.99521853687121</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>148.2796428708918</v>
       </c>
       <c r="S22" t="n">
         <v>212.6245410698995</v>
@@ -2298,10 +2298,10 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>90.83002103235195</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.0925768874155</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C23" t="n">
         <v>366.9850956789426</v>
@@ -2326,16 +2326,16 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G23" t="n">
         <v>413.6097194764729</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>54.95966327885069</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,25 +2368,25 @@
         <v>63.64170646647294</v>
       </c>
       <c r="S23" t="n">
-        <v>177.493467653868</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>217.5149286494106</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.3781599023558</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>328.5332215225193</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>290.325149528602</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="24">
@@ -2414,10 +2414,10 @@
         <v>135.3570519053243</v>
       </c>
       <c r="H24" t="n">
-        <v>104.0288287853823</v>
+        <v>22.34031300679495</v>
       </c>
       <c r="I24" t="n">
-        <v>63.56783007605712</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2459,7 +2459,7 @@
         <v>231.9087310396551</v>
       </c>
       <c r="W24" t="n">
-        <v>104.7330008953557</v>
+        <v>249.98934675</v>
       </c>
       <c r="X24" t="n">
         <v>204.4616296084783</v>
@@ -2475,16 +2475,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>180.0836914906838</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.3365529312023</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>149.0055665145194</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>126.1165465901325</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2532,13 +2532,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.0218075870219</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.9363510669392</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>83.58419887257701</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2554,13 +2554,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -2569,13 +2569,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>413.6097194764729</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>325.3930767845979</v>
       </c>
       <c r="I26" t="n">
-        <v>157.2246747536534</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,19 +2605,19 @@
         <v>63.64170646647294</v>
       </c>
       <c r="S26" t="n">
-        <v>177.493467653868</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>217.5149286494106</v>
       </c>
       <c r="U26" t="n">
-        <v>251.3781599023558</v>
+        <v>46.76079490009251</v>
       </c>
       <c r="V26" t="n">
-        <v>132.3641160606433</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W26" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>370.8615991311694</v>
@@ -2651,10 +2651,10 @@
         <v>135.3570519053243</v>
       </c>
       <c r="H27" t="n">
-        <v>104.0288287853823</v>
+        <v>22.34031300679495</v>
       </c>
       <c r="I27" t="n">
-        <v>63.56783007605712</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,10 +2681,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>53.33473024000174</v>
       </c>
       <c r="S27" t="n">
-        <v>64.66640004843207</v>
+        <v>156.5880156630749</v>
       </c>
       <c r="T27" t="n">
         <v>195.6974464808964</v>
@@ -2775,10 +2775,10 @@
         <v>252.9363510669392</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>83.58419887257701</v>
       </c>
       <c r="X28" t="n">
-        <v>83.58419887257701</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2791,28 +2791,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E29" t="n">
-        <v>117.9287471893071</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>407.2938634805408</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>413.6097194764729</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>325.3930767845979</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>157.2246747536534</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,25 +2842,25 @@
         <v>63.64170646647294</v>
       </c>
       <c r="S29" t="n">
-        <v>177.493467653868</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>217.5149286494106</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.3781599023558</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>328.5332215225193</v>
+        <v>180.9848331048299</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="30">
@@ -2876,7 +2876,7 @@
         <v>171.025583927401</v>
       </c>
       <c r="D30" t="n">
-        <v>146.1124235746456</v>
+        <v>0.8560777200009522</v>
       </c>
       <c r="E30" t="n">
         <v>156.0334337071738</v>
@@ -2888,10 +2888,10 @@
         <v>135.3570519053243</v>
       </c>
       <c r="H30" t="n">
-        <v>22.34031300679495</v>
+        <v>104.0288287853823</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>63.56783007605712</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>180.0836914906838</v>
       </c>
       <c r="C31" t="n">
         <v>167.3365529312023</v>
       </c>
       <c r="D31" t="n">
-        <v>149.0055665145194</v>
+        <v>126.84247023376</v>
       </c>
       <c r="E31" t="n">
-        <v>53.26388701387727</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>148.2796428708918</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3009,7 +3009,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.9363510669392</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3028,10 +3028,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C32" t="n">
-        <v>366.9850956789426</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>356.6047327545984</v>
@@ -3040,16 +3040,16 @@
         <v>383.1180357552875</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>413.6097194764729</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>325.3930767845979</v>
       </c>
       <c r="I32" t="n">
-        <v>157.2246747536534</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,19 +3079,19 @@
         <v>63.64170646647294</v>
       </c>
       <c r="S32" t="n">
-        <v>177.493467653868</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>217.5149286494106</v>
+        <v>126.6340211698328</v>
       </c>
       <c r="U32" t="n">
-        <v>251.3781599023558</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>135.5206472640552</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -3125,10 +3125,10 @@
         <v>135.3570519053243</v>
       </c>
       <c r="H33" t="n">
-        <v>104.0288287853823</v>
+        <v>22.34031300679495</v>
       </c>
       <c r="I33" t="n">
-        <v>63.56783007605712</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>53.33473024000174</v>
       </c>
       <c r="S33" t="n">
-        <v>11.33166980843018</v>
+        <v>156.5880156630749</v>
       </c>
       <c r="T33" t="n">
         <v>195.6974464808964</v>
@@ -3192,13 +3192,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>149.0055665145194</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.9746241731992</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>100.42180690651</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3243,16 +3243,16 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>83.51342957218336</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.9363510669392</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X34" t="n">
-        <v>226.1403599323093</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3265,16 +3265,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C35" t="n">
-        <v>45.90586374287845</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>383.1180357552875</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>407.2938634805408</v>
@@ -3283,10 +3283,10 @@
         <v>413.6097194764729</v>
       </c>
       <c r="H35" t="n">
-        <v>325.3930767845979</v>
+        <v>97.34664950734961</v>
       </c>
       <c r="I35" t="n">
-        <v>157.2246747536534</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3313,19 +3313,19 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>63.64170646647294</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>177.493467653868</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>217.5149286494106</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -3359,13 +3359,13 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G36" t="n">
-        <v>135.3570519053243</v>
+        <v>53.66853612673689</v>
       </c>
       <c r="H36" t="n">
         <v>104.0288287853823</v>
       </c>
       <c r="I36" t="n">
-        <v>63.56783007605712</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3395,7 +3395,7 @@
         <v>53.33473024000174</v>
       </c>
       <c r="S36" t="n">
-        <v>11.33166980843018</v>
+        <v>156.5880156630749</v>
       </c>
       <c r="T36" t="n">
         <v>195.6974464808964</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>148.2796428708918</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3480,13 +3480,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>143.4656465272897</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.9363510669392</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>248.1223547233369</v>
       </c>
       <c r="X37" t="n">
         <v>226.1403599323093</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>58.49879837641889</v>
       </c>
       <c r="C38" t="n">
         <v>366.9850956789426</v>
@@ -3517,13 +3517,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>217.603711239648</v>
+        <v>413.6097194764729</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>325.3930767845979</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>157.2246747536534</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>177.493467653868</v>
       </c>
       <c r="T38" t="n">
         <v>217.5149286494106</v>
       </c>
       <c r="U38" t="n">
-        <v>251.3781599023558</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>328.5332215225193</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>370.8615991311694</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="39">
@@ -3599,10 +3599,10 @@
         <v>135.3570519053243</v>
       </c>
       <c r="H39" t="n">
-        <v>104.0288287853823</v>
+        <v>75.67504324679705</v>
       </c>
       <c r="I39" t="n">
-        <v>63.56783007605712</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>64.66640004843207</v>
+        <v>156.5880156630749</v>
       </c>
       <c r="T39" t="n">
         <v>195.6974464808964</v>
@@ -3705,25 +3705,25 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>32.99521853687121</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>148.2796428708918</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>225.9462130081922</v>
+        <v>50.42797305210072</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.0218075870219</v>
       </c>
       <c r="V40" t="n">
-        <v>215.3212831105828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3739,16 +3739,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>383.716409991395</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>219.4367072612535</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D41" t="n">
         <v>356.6047327545984</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -3787,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>63.64170646647293</v>
+        <v>63.64170646647294</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -3796,10 +3796,10 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>181.5832073409373</v>
       </c>
       <c r="V41" t="n">
-        <v>328.5332215225193</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>350.5301170005546</v>
@@ -3833,13 +3833,13 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G42" t="n">
-        <v>135.3570519053243</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>104.0288287853823</v>
       </c>
       <c r="I42" t="n">
-        <v>63.56783007605711</v>
+        <v>63.56783007605712</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,13 +3866,13 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>53.33473024000173</v>
+        <v>43.43543629068141</v>
       </c>
       <c r="S42" t="n">
         <v>156.5880156630749</v>
       </c>
       <c r="T42" t="n">
-        <v>50.4411006262517</v>
+        <v>195.6974464808964</v>
       </c>
       <c r="U42" t="n">
         <v>224.6133508632724</v>
@@ -3903,16 +3903,16 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>149.0055665145194</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F43" t="n">
-        <v>50.42797305210065</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>167.3311041893321</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3951,16 +3951,16 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>13.07204123968297</v>
       </c>
       <c r="U43" t="n">
-        <v>286.0218075870219</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.0925768874155</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3982,16 +3982,16 @@
         <v>366.9850956789426</v>
       </c>
       <c r="D44" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>383.1180357552875</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G44" t="n">
-        <v>168.7283964807118</v>
+        <v>161.3494900906276</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4024,7 +4024,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>63.64170646647293</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4039,10 +4039,10 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y44" t="n">
         <v>386.6870717512358</v>
@@ -4073,10 +4073,10 @@
         <v>135.3570519053243</v>
       </c>
       <c r="H45" t="n">
-        <v>104.0288287853823</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>63.56783007605711</v>
+        <v>22.34031300679495</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,10 +4103,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>53.33473024000174</v>
       </c>
       <c r="S45" t="n">
-        <v>64.66640004843207</v>
+        <v>156.5880156630749</v>
       </c>
       <c r="T45" t="n">
         <v>195.6974464808964</v>
@@ -4143,22 +4143,22 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F46" t="n">
         <v>146.1590214098045</v>
       </c>
       <c r="G46" t="n">
-        <v>133.39733990973</v>
+        <v>167.3311041893321</v>
       </c>
       <c r="H46" t="n">
-        <v>156.6686349500177</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>136.9633875020681</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>49.3539737549178</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -4203,7 +4203,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>162.0776077542024</v>
       </c>
     </row>
   </sheetData>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>676.7972192224911</v>
+        <v>44.98099349534252</v>
       </c>
       <c r="C2" t="n">
-        <v>676.7972192224911</v>
+        <v>44.98099349534252</v>
       </c>
       <c r="D2" t="n">
-        <v>676.7972192224911</v>
+        <v>44.98099349534252</v>
       </c>
       <c r="E2" t="n">
-        <v>576.0514062875353</v>
+        <v>44.98099349534252</v>
       </c>
       <c r="F2" t="n">
-        <v>298.9970554374318</v>
+        <v>37.61345462610935</v>
       </c>
       <c r="G2" t="n">
-        <v>21.9427045873282</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="H2" t="n">
-        <v>21.9427045873282</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="I2" t="n">
-        <v>21.9427045873282</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="J2" t="n">
         <v>21.9427045873282</v>
@@ -4342,10 +4342,10 @@
         <v>586.1689795623909</v>
       </c>
       <c r="N2" t="n">
-        <v>815.0204133003602</v>
+        <v>815.0204133003604</v>
       </c>
       <c r="O2" t="n">
-        <v>984.9899813536997</v>
+        <v>984.9899813536998</v>
       </c>
       <c r="P2" t="n">
         <v>1093.116282134284</v>
@@ -4357,25 +4357,25 @@
         <v>953.8515700725947</v>
       </c>
       <c r="S2" t="n">
-        <v>953.8515700725947</v>
+        <v>745.907174392252</v>
       </c>
       <c r="T2" t="n">
-        <v>953.8515700725947</v>
+        <v>520.6898842948577</v>
       </c>
       <c r="U2" t="n">
-        <v>953.8515700725947</v>
+        <v>266.6719412882472</v>
       </c>
       <c r="V2" t="n">
-        <v>953.8515700725947</v>
+        <v>44.98099349534252</v>
       </c>
       <c r="W2" t="n">
-        <v>953.8515700725947</v>
+        <v>44.98099349534252</v>
       </c>
       <c r="X2" t="n">
-        <v>953.8515700725947</v>
+        <v>44.98099349534252</v>
       </c>
       <c r="Y2" t="n">
-        <v>676.7972192224911</v>
+        <v>44.98099349534252</v>
       </c>
     </row>
     <row r="3">
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>109.3200212191178</v>
+        <v>981.2022424513852</v>
       </c>
       <c r="C3" t="n">
-        <v>109.3200212191178</v>
+        <v>808.4491273732024</v>
       </c>
       <c r="D3" t="n">
-        <v>109.3200212191178</v>
+        <v>660.8608207321463</v>
       </c>
       <c r="E3" t="n">
-        <v>109.3200212191178</v>
+        <v>503.251291735001</v>
       </c>
       <c r="F3" t="n">
-        <v>109.3200212191178</v>
+        <v>358.2955017516178</v>
       </c>
       <c r="G3" t="n">
-        <v>109.3200212191178</v>
+        <v>220.8983197263226</v>
       </c>
       <c r="H3" t="n">
         <v>109.3200212191178</v>
@@ -4409,25 +4409,25 @@
         <v>21.9427045873282</v>
       </c>
       <c r="J3" t="n">
-        <v>29.3360154338131</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K3" t="n">
-        <v>29.3360154338131</v>
+        <v>161.1846636454791</v>
       </c>
       <c r="L3" t="n">
-        <v>277.4136198757311</v>
+        <v>359.1441712859057</v>
       </c>
       <c r="M3" t="n">
-        <v>548.9545891439176</v>
+        <v>359.1441712859057</v>
       </c>
       <c r="N3" t="n">
-        <v>748.0774423727912</v>
+        <v>630.6851405540922</v>
       </c>
       <c r="O3" t="n">
-        <v>1015.957061350112</v>
+        <v>898.564759531413</v>
       </c>
       <c r="P3" t="n">
-        <v>1015.957061350112</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Q3" t="n">
         <v>1097.13522936641</v>
@@ -4436,25 +4436,25 @@
         <v>1001.483734658237</v>
       </c>
       <c r="S3" t="n">
-        <v>830.8154377838487</v>
+        <v>981.2022424513852</v>
       </c>
       <c r="T3" t="n">
-        <v>630.4290419169106</v>
+        <v>981.2022424513852</v>
       </c>
       <c r="U3" t="n">
-        <v>403.5026004348891</v>
+        <v>981.2022424513852</v>
       </c>
       <c r="V3" t="n">
-        <v>169.25135696049</v>
+        <v>981.2022424513852</v>
       </c>
       <c r="W3" t="n">
-        <v>109.3200212191178</v>
+        <v>981.2022424513852</v>
       </c>
       <c r="X3" t="n">
-        <v>109.3200212191178</v>
+        <v>981.2022424513852</v>
       </c>
       <c r="Y3" t="n">
-        <v>109.3200212191178</v>
+        <v>981.2022424513852</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="C4" t="n">
-        <v>21.9427045873282</v>
+        <v>33.63621338571812</v>
       </c>
       <c r="D4" t="n">
-        <v>21.9427045873282</v>
+        <v>33.63621338571812</v>
       </c>
       <c r="E4" t="n">
-        <v>21.9427045873282</v>
+        <v>33.63621338571812</v>
       </c>
       <c r="F4" t="n">
-        <v>21.9427045873282</v>
+        <v>33.63621338571812</v>
       </c>
       <c r="G4" t="n">
-        <v>21.9427045873282</v>
+        <v>33.63621338571812</v>
       </c>
       <c r="H4" t="n">
-        <v>21.9427045873282</v>
+        <v>33.63621338571812</v>
       </c>
       <c r="I4" t="n">
-        <v>21.9427045873282</v>
+        <v>33.63621338571812</v>
       </c>
       <c r="J4" t="n">
-        <v>21.9427045873282</v>
+        <v>33.63621338571812</v>
       </c>
       <c r="K4" t="n">
         <v>21.9427045873282</v>
@@ -4527,13 +4527,13 @@
         <v>202.6630345283467</v>
       </c>
       <c r="W4" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="X4" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="Y4" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
     </row>
     <row r="5">
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>617.899996262405</v>
+        <v>676.7972192224911</v>
       </c>
       <c r="C5" t="n">
-        <v>617.899996262405</v>
+        <v>514.3278114810956</v>
       </c>
       <c r="D5" t="n">
-        <v>340.8456454123015</v>
+        <v>514.3278114810956</v>
       </c>
       <c r="E5" t="n">
-        <v>340.8456454123015</v>
+        <v>514.3278114810956</v>
       </c>
       <c r="F5" t="n">
-        <v>333.4781065430683</v>
+        <v>506.9602726118625</v>
       </c>
       <c r="G5" t="n">
-        <v>318.4732930038451</v>
+        <v>229.9059217617589</v>
       </c>
       <c r="H5" t="n">
-        <v>229.2399852622009</v>
+        <v>229.9059217617589</v>
       </c>
       <c r="I5" t="n">
-        <v>21.9427045873282</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="J5" t="n">
         <v>21.9427045873282</v>
@@ -4591,28 +4591,28 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R5" t="n">
-        <v>1097.13522936641</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="S5" t="n">
-        <v>1097.13522936641</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="T5" t="n">
-        <v>871.9179392690156</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="U5" t="n">
-        <v>617.899996262405</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="V5" t="n">
-        <v>617.899996262405</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="W5" t="n">
-        <v>617.899996262405</v>
+        <v>676.7972192224911</v>
       </c>
       <c r="X5" t="n">
-        <v>617.899996262405</v>
+        <v>676.7972192224911</v>
       </c>
       <c r="Y5" t="n">
-        <v>617.899996262405</v>
+        <v>676.7972192224911</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>520.352100848734</v>
+        <v>282.0731362973006</v>
       </c>
       <c r="C6" t="n">
-        <v>347.5989857705512</v>
+        <v>109.3200212191178</v>
       </c>
       <c r="D6" t="n">
-        <v>347.5989857705512</v>
+        <v>109.3200212191178</v>
       </c>
       <c r="E6" t="n">
-        <v>189.9894567734059</v>
+        <v>109.3200212191178</v>
       </c>
       <c r="F6" t="n">
-        <v>45.03366679002278</v>
+        <v>109.3200212191178</v>
       </c>
       <c r="G6" t="n">
-        <v>45.03366679002278</v>
+        <v>109.3200212191178</v>
       </c>
       <c r="H6" t="n">
-        <v>21.9427045873282</v>
+        <v>109.3200212191178</v>
       </c>
       <c r="I6" t="n">
         <v>21.9427045873282</v>
@@ -4652,19 +4652,19 @@
         <v>168.577974491964</v>
       </c>
       <c r="L6" t="n">
-        <v>168.577974491964</v>
+        <v>416.655578933882</v>
       </c>
       <c r="M6" t="n">
-        <v>277.9660032696079</v>
+        <v>688.1965482020685</v>
       </c>
       <c r="N6" t="n">
-        <v>549.5069725377944</v>
+        <v>829.2556103890893</v>
       </c>
       <c r="O6" t="n">
-        <v>817.386591515115</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="P6" t="n">
-        <v>1015.957061350112</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Q6" t="n">
         <v>1097.13522936641</v>
@@ -4673,25 +4673,25 @@
         <v>1097.13522936641</v>
       </c>
       <c r="S6" t="n">
-        <v>926.4669324920217</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T6" t="n">
-        <v>726.0805366250836</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="U6" t="n">
-        <v>726.0805366250836</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="V6" t="n">
-        <v>726.0805366250836</v>
+        <v>946.8429623347394</v>
       </c>
       <c r="W6" t="n">
-        <v>726.0805366250836</v>
+        <v>694.3284706680727</v>
       </c>
       <c r="X6" t="n">
-        <v>726.0805366250836</v>
+        <v>487.8015720736502</v>
       </c>
       <c r="Y6" t="n">
-        <v>520.352100848734</v>
+        <v>282.0731362973006</v>
       </c>
     </row>
     <row r="7">
@@ -4701,13 +4701,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="C7" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="D7" t="n">
-        <v>21.9427045873282</v>
+        <v>52.15236128135749</v>
       </c>
       <c r="E7" t="n">
         <v>21.9427045873282</v>
@@ -4749,28 +4749,28 @@
         <v>202.6630345283467</v>
       </c>
       <c r="R7" t="n">
-        <v>27.52046112452624</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="S7" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="T7" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="U7" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="V7" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="W7" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="X7" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="Y7" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>44.31505699578452</v>
+        <v>491.8892313856415</v>
       </c>
       <c r="C8" t="n">
-        <v>44.31505699578452</v>
+        <v>491.8892313856415</v>
       </c>
       <c r="D8" t="n">
-        <v>44.31505699578452</v>
+        <v>491.8892313856415</v>
       </c>
       <c r="E8" t="n">
-        <v>44.31505699578452</v>
+        <v>252.2782741702153</v>
       </c>
       <c r="F8" t="n">
-        <v>36.94751812655136</v>
+        <v>244.9107353009821</v>
       </c>
       <c r="G8" t="n">
-        <v>21.9427045873282</v>
+        <v>229.9059217617589</v>
       </c>
       <c r="H8" t="n">
-        <v>21.9427045873282</v>
+        <v>229.9059217617589</v>
       </c>
       <c r="I8" t="n">
-        <v>21.9427045873282</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="J8" t="n">
         <v>21.9427045873282</v>
@@ -4819,37 +4819,37 @@
         <v>815.0204133003604</v>
       </c>
       <c r="O8" t="n">
-        <v>984.9899813536999</v>
+        <v>984.9899813536998</v>
       </c>
       <c r="P8" t="n">
-        <v>1093.116282134285</v>
+        <v>1093.116282134284</v>
       </c>
       <c r="Q8" t="n">
         <v>1097.13522936641</v>
       </c>
       <c r="R8" t="n">
-        <v>1097.13522936641</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="S8" t="n">
-        <v>1097.13522936641</v>
+        <v>745.907174392252</v>
       </c>
       <c r="T8" t="n">
-        <v>1097.13522936641</v>
+        <v>745.907174392252</v>
       </c>
       <c r="U8" t="n">
-        <v>1097.13522936641</v>
+        <v>491.8892313856415</v>
       </c>
       <c r="V8" t="n">
-        <v>820.0808785163065</v>
+        <v>491.8892313856415</v>
       </c>
       <c r="W8" t="n">
-        <v>543.0265276662028</v>
+        <v>491.8892313856415</v>
       </c>
       <c r="X8" t="n">
-        <v>543.0265276662028</v>
+        <v>491.8892313856415</v>
       </c>
       <c r="Y8" t="n">
-        <v>265.9721768160992</v>
+        <v>491.8892313856415</v>
       </c>
     </row>
     <row r="9">
@@ -4859,22 +4859,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>981.2022424513852</v>
+        <v>109.3200212191178</v>
       </c>
       <c r="C9" t="n">
-        <v>808.4491273732024</v>
+        <v>109.3200212191178</v>
       </c>
       <c r="D9" t="n">
-        <v>660.8608207321463</v>
+        <v>109.3200212191178</v>
       </c>
       <c r="E9" t="n">
-        <v>503.251291735001</v>
+        <v>109.3200212191178</v>
       </c>
       <c r="F9" t="n">
-        <v>358.2955017516178</v>
+        <v>109.3200212191178</v>
       </c>
       <c r="G9" t="n">
-        <v>220.8983197263226</v>
+        <v>109.3200212191178</v>
       </c>
       <c r="H9" t="n">
         <v>109.3200212191178</v>
@@ -4883,25 +4883,25 @@
         <v>21.9427045873282</v>
       </c>
       <c r="J9" t="n">
-        <v>21.9427045873282</v>
+        <v>29.3360154338131</v>
       </c>
       <c r="K9" t="n">
-        <v>29.88839882769005</v>
+        <v>38.09606741079833</v>
       </c>
       <c r="L9" t="n">
-        <v>277.9660032696081</v>
+        <v>286.1736718527163</v>
       </c>
       <c r="M9" t="n">
-        <v>549.5069725377946</v>
+        <v>557.7146411209028</v>
       </c>
       <c r="N9" t="n">
-        <v>549.5069725377946</v>
+        <v>829.2556103890893</v>
       </c>
       <c r="O9" t="n">
-        <v>817.3865915151152</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="P9" t="n">
-        <v>1015.957061350112</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Q9" t="n">
         <v>1097.13522936641</v>
@@ -4916,19 +4916,19 @@
         <v>1097.13522936641</v>
       </c>
       <c r="U9" t="n">
-        <v>1097.13522936641</v>
+        <v>870.2087878843885</v>
       </c>
       <c r="V9" t="n">
-        <v>1097.13522936641</v>
+        <v>635.9575444099894</v>
       </c>
       <c r="W9" t="n">
-        <v>1097.13522936641</v>
+        <v>383.4430527433227</v>
       </c>
       <c r="X9" t="n">
-        <v>1097.13522936641</v>
+        <v>176.9161541489002</v>
       </c>
       <c r="Y9" t="n">
-        <v>1097.13522936641</v>
+        <v>109.3200212191178</v>
       </c>
     </row>
     <row r="10">
@@ -4944,31 +4944,31 @@
         <v>202.6630345283467</v>
       </c>
       <c r="D10" t="n">
-        <v>170.401920923893</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="E10" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="F10" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="G10" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="H10" t="n">
-        <v>21.9427045873282</v>
+        <v>39.39629512540043</v>
       </c>
       <c r="I10" t="n">
-        <v>21.9427045873282</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="J10" t="n">
-        <v>21.9427045873282</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="K10" t="n">
         <v>21.9427045873282</v>
       </c>
       <c r="L10" t="n">
-        <v>59.0292235140474</v>
+        <v>59.02922351404739</v>
       </c>
       <c r="M10" t="n">
         <v>108.7246574309869</v>
@@ -5017,37 +5017,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1367.399648652797</v>
+        <v>1193.018191500087</v>
       </c>
       <c r="C11" t="n">
-        <v>1367.399648652797</v>
+        <v>822.326175662771</v>
       </c>
       <c r="D11" t="n">
-        <v>1367.399648652797</v>
+        <v>462.1193749005504</v>
       </c>
       <c r="E11" t="n">
-        <v>1367.399648652797</v>
+        <v>462.1193749005504</v>
       </c>
       <c r="F11" t="n">
-        <v>955.9917057431599</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="G11" t="n">
-        <v>538.2041103123792</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="H11" t="n">
-        <v>209.5242347723812</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I11" t="n">
         <v>50.71143199091319</v>
       </c>
       <c r="J11" t="n">
-        <v>154.6737472370294</v>
+        <v>154.6737472370296</v>
       </c>
       <c r="K11" t="n">
-        <v>432.762901072481</v>
+        <v>432.7629010724813</v>
       </c>
       <c r="L11" t="n">
-        <v>829.7261648535818</v>
+        <v>829.7261648535823</v>
       </c>
       <c r="M11" t="n">
         <v>1286.636576300462</v>
@@ -5065,28 +5065,28 @@
         <v>2535.571599545659</v>
       </c>
       <c r="R11" t="n">
-        <v>2471.287047559323</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="S11" t="n">
-        <v>2292.00071659582</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="T11" t="n">
-        <v>2072.288667455001</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="U11" t="n">
-        <v>1818.371334220299</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="V11" t="n">
-        <v>1486.519595308663</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="W11" t="n">
-        <v>1367.399648652797</v>
+        <v>2345.811202483723</v>
       </c>
       <c r="X11" t="n">
-        <v>1367.399648652797</v>
+        <v>1971.203526593653</v>
       </c>
       <c r="Y11" t="n">
-        <v>1367.399648652797</v>
+        <v>1580.610524824728</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>979.6320219500381</v>
+        <v>886.7819051675707</v>
       </c>
       <c r="C12" t="n">
-        <v>806.8789068718552</v>
+        <v>714.0287900893879</v>
       </c>
       <c r="D12" t="n">
-        <v>659.290600230799</v>
+        <v>566.4404834483319</v>
       </c>
       <c r="E12" t="n">
-        <v>501.6810712336537</v>
+        <v>408.8309544511866</v>
       </c>
       <c r="F12" t="n">
-        <v>356.7252812502705</v>
+        <v>263.8751644678034</v>
       </c>
       <c r="G12" t="n">
-        <v>220.0009863964076</v>
+        <v>127.1508696139405</v>
       </c>
       <c r="H12" t="n">
-        <v>114.9213613606678</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I12" t="n">
         <v>50.71143199091319</v>
       </c>
       <c r="J12" t="n">
-        <v>120.4127199202217</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="K12" t="n">
-        <v>366.1489360814929</v>
+        <v>296.4476481521845</v>
       </c>
       <c r="L12" t="n">
-        <v>757.4212114061546</v>
+        <v>687.7199234768461</v>
       </c>
       <c r="M12" t="n">
-        <v>1266.817695663801</v>
+        <v>1197.116407734492</v>
       </c>
       <c r="N12" t="n">
-        <v>1786.275517555499</v>
+        <v>1735.393833177324</v>
       </c>
       <c r="O12" t="n">
-        <v>2211.066182111574</v>
+        <v>2160.184497733399</v>
       </c>
       <c r="P12" t="n">
-        <v>2535.571599545659</v>
+        <v>2484.689915167484</v>
       </c>
       <c r="Q12" t="n">
         <v>2535.571599545659</v>
       </c>
       <c r="R12" t="n">
-        <v>2481.698134656769</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="S12" t="n">
-        <v>2470.252003537142</v>
+        <v>2377.401886754675</v>
       </c>
       <c r="T12" t="n">
-        <v>2272.5778151726</v>
+        <v>2179.727698390133</v>
       </c>
       <c r="U12" t="n">
-        <v>2045.695642583436</v>
+        <v>1952.845525800969</v>
       </c>
       <c r="V12" t="n">
-        <v>1811.444399109037</v>
+        <v>1718.59428232657</v>
       </c>
       <c r="W12" t="n">
-        <v>1558.92990744237</v>
+        <v>1466.079790659903</v>
       </c>
       <c r="X12" t="n">
-        <v>1352.403008847948</v>
+        <v>1259.552892065481</v>
       </c>
       <c r="Y12" t="n">
-        <v>1146.674573071598</v>
+        <v>1053.824456289131</v>
       </c>
     </row>
     <row r="13">
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>53.43541385018935</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="C13" t="n">
-        <v>53.43541385018935</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="D13" t="n">
-        <v>53.43541385018935</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="E13" t="n">
-        <v>53.43541385018935</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="F13" t="n">
-        <v>53.43541385018935</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="G13" t="n">
-        <v>53.43541385018935</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="H13" t="n">
-        <v>53.43541385018935</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I13" t="n">
-        <v>53.43541385018935</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="J13" t="n">
         <v>50.71143199091319</v>
@@ -5208,7 +5208,7 @@
         <v>219.6093352368815</v>
       </c>
       <c r="M13" t="n">
-        <v>355.9743406206216</v>
+        <v>355.9743406206215</v>
       </c>
       <c r="N13" t="n">
         <v>494.2381528619504</v>
@@ -5220,31 +5220,31 @@
         <v>679.5420961591335</v>
       </c>
       <c r="Q13" t="n">
-        <v>646.2135925865364</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="R13" t="n">
-        <v>496.4361755452314</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="S13" t="n">
-        <v>281.6639118382623</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="T13" t="n">
-        <v>53.43541385018935</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="U13" t="n">
-        <v>53.43541385018935</v>
+        <v>390.6311794045659</v>
       </c>
       <c r="V13" t="n">
-        <v>53.43541385018935</v>
+        <v>339.6938328872925</v>
       </c>
       <c r="W13" t="n">
-        <v>53.43541385018935</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="X13" t="n">
-        <v>53.43541385018935</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="Y13" t="n">
-        <v>53.43541385018935</v>
+        <v>50.71143199091319</v>
       </c>
     </row>
     <row r="14">
@@ -5254,37 +5254,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1818.371334220299</v>
+        <v>1730.090478258502</v>
       </c>
       <c r="C14" t="n">
-        <v>1818.371334220299</v>
+        <v>1359.398462421187</v>
       </c>
       <c r="D14" t="n">
-        <v>1754.387563557128</v>
+        <v>999.191661658966</v>
       </c>
       <c r="E14" t="n">
-        <v>1367.399648652797</v>
+        <v>612.2037467546352</v>
       </c>
       <c r="F14" t="n">
-        <v>955.9917057431599</v>
+        <v>200.7958038449979</v>
       </c>
       <c r="G14" t="n">
-        <v>538.2041103123792</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="H14" t="n">
-        <v>209.5242347723812</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I14" t="n">
         <v>50.71143199091319</v>
       </c>
       <c r="J14" t="n">
-        <v>154.6737472370294</v>
+        <v>154.6737472370296</v>
       </c>
       <c r="K14" t="n">
-        <v>432.762901072481</v>
+        <v>432.7629010724813</v>
       </c>
       <c r="L14" t="n">
-        <v>829.7261648535821</v>
+        <v>829.7261648535823</v>
       </c>
       <c r="M14" t="n">
         <v>1286.636576300462</v>
@@ -5302,28 +5302,28 @@
         <v>2535.571599545659</v>
       </c>
       <c r="R14" t="n">
-        <v>2471.287047559323</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="S14" t="n">
-        <v>2292.00071659582</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="T14" t="n">
-        <v>2072.288667455001</v>
+        <v>2315.859550404841</v>
       </c>
       <c r="U14" t="n">
-        <v>1818.371334220299</v>
+        <v>2061.942217170138</v>
       </c>
       <c r="V14" t="n">
-        <v>1818.371334220299</v>
+        <v>1730.090478258502</v>
       </c>
       <c r="W14" t="n">
-        <v>1818.371334220299</v>
+        <v>1730.090478258502</v>
       </c>
       <c r="X14" t="n">
-        <v>1818.371334220299</v>
+        <v>1730.090478258502</v>
       </c>
       <c r="Y14" t="n">
-        <v>1818.371334220299</v>
+        <v>1730.090478258502</v>
       </c>
     </row>
     <row r="15">
@@ -5342,40 +5342,40 @@
         <v>512.5670185594408</v>
       </c>
       <c r="E15" t="n">
-        <v>356.7252812502705</v>
+        <v>354.9574895622956</v>
       </c>
       <c r="F15" t="n">
-        <v>356.7252812502705</v>
+        <v>210.0016995789124</v>
       </c>
       <c r="G15" t="n">
-        <v>220.0009863964076</v>
+        <v>210.0016995789124</v>
       </c>
       <c r="H15" t="n">
-        <v>114.9213613606679</v>
+        <v>104.9220745431727</v>
       </c>
       <c r="I15" t="n">
         <v>50.71143199091319</v>
       </c>
       <c r="J15" t="n">
-        <v>120.4127199202217</v>
+        <v>101.5931163690881</v>
       </c>
       <c r="K15" t="n">
-        <v>366.1489360814929</v>
+        <v>347.3293325303594</v>
       </c>
       <c r="L15" t="n">
-        <v>573.239262455199</v>
+        <v>738.601607855021</v>
       </c>
       <c r="M15" t="n">
-        <v>1082.635746712845</v>
+        <v>1247.998092112667</v>
       </c>
       <c r="N15" t="n">
-        <v>1620.913172155677</v>
+        <v>1786.275517555499</v>
       </c>
       <c r="O15" t="n">
-        <v>2045.703836711752</v>
+        <v>2211.066182111574</v>
       </c>
       <c r="P15" t="n">
-        <v>2370.209254145837</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="Q15" t="n">
         <v>2535.571599545659</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>679.5420961591335</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="C16" t="n">
-        <v>679.5420961591335</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="D16" t="n">
-        <v>679.5420961591335</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="E16" t="n">
-        <v>679.5420961591335</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="F16" t="n">
-        <v>566.1832505730705</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="G16" t="n">
-        <v>397.1619332101088</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="H16" t="n">
-        <v>238.9107867959494</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I16" t="n">
-        <v>100.5639307332544</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="J16" t="n">
         <v>50.71143199091319</v>
@@ -5469,19 +5469,19 @@
         <v>679.5420961591335</v>
       </c>
       <c r="U16" t="n">
-        <v>679.5420961591335</v>
+        <v>390.6311794045659</v>
       </c>
       <c r="V16" t="n">
-        <v>679.5420961591335</v>
+        <v>135.1399157005869</v>
       </c>
       <c r="W16" t="n">
-        <v>679.5420961591335</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="X16" t="n">
-        <v>679.5420961591335</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="Y16" t="n">
-        <v>679.5420961591335</v>
+        <v>50.71143199091319</v>
       </c>
     </row>
     <row r="17">
@@ -5491,43 +5491,43 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2485.286380156665</v>
+        <v>1416.300096633579</v>
       </c>
       <c r="C17" t="n">
-        <v>2114.594364319349</v>
+        <v>1416.300096633579</v>
       </c>
       <c r="D17" t="n">
-        <v>1754.387563557128</v>
+        <v>1416.300096633579</v>
       </c>
       <c r="E17" t="n">
-        <v>1367.399648652797</v>
+        <v>1208.586845871329</v>
       </c>
       <c r="F17" t="n">
-        <v>955.9917057431599</v>
+        <v>797.1789029616918</v>
       </c>
       <c r="G17" t="n">
-        <v>538.2041103123792</v>
+        <v>379.3913075309111</v>
       </c>
       <c r="H17" t="n">
-        <v>209.5242347723812</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I17" t="n">
         <v>50.71143199091319</v>
       </c>
       <c r="J17" t="n">
-        <v>154.6737472370291</v>
+        <v>154.6737472370296</v>
       </c>
       <c r="K17" t="n">
-        <v>432.7629010724809</v>
+        <v>432.7629010724813</v>
       </c>
       <c r="L17" t="n">
-        <v>829.726164853582</v>
+        <v>829.7261648535825</v>
       </c>
       <c r="M17" t="n">
         <v>1286.636576300462</v>
       </c>
       <c r="N17" t="n">
-        <v>1735.42310089741</v>
+        <v>1735.423100897411</v>
       </c>
       <c r="O17" t="n">
         <v>2113.071138623965</v>
@@ -5554,13 +5554,13 @@
         <v>2535.571599545659</v>
       </c>
       <c r="W17" t="n">
-        <v>2535.571599545659</v>
+        <v>2181.500774292574</v>
       </c>
       <c r="X17" t="n">
-        <v>2535.571599545659</v>
+        <v>1806.893098402504</v>
       </c>
       <c r="Y17" t="n">
-        <v>2535.571599545659</v>
+        <v>1416.300096633579</v>
       </c>
     </row>
     <row r="18">
@@ -5570,19 +5570,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>842.907727096175</v>
+        <v>979.6320219500381</v>
       </c>
       <c r="C18" t="n">
-        <v>670.1546120179921</v>
+        <v>806.8789068718552</v>
       </c>
       <c r="D18" t="n">
-        <v>522.566305376936</v>
+        <v>659.290600230799</v>
       </c>
       <c r="E18" t="n">
-        <v>364.9567763797908</v>
+        <v>501.6810712336537</v>
       </c>
       <c r="F18" t="n">
-        <v>220.0009863964076</v>
+        <v>356.7252812502705</v>
       </c>
       <c r="G18" t="n">
         <v>220.0009863964076</v>
@@ -5594,25 +5594,25 @@
         <v>50.71143199091319</v>
       </c>
       <c r="J18" t="n">
-        <v>120.4127199202217</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="K18" t="n">
-        <v>366.1489360814929</v>
+        <v>296.4476481521845</v>
       </c>
       <c r="L18" t="n">
-        <v>757.4212114061545</v>
+        <v>687.7199234768461</v>
       </c>
       <c r="M18" t="n">
-        <v>1266.817695663801</v>
+        <v>1197.116407734492</v>
       </c>
       <c r="N18" t="n">
-        <v>1620.913172155677</v>
+        <v>1735.393833177324</v>
       </c>
       <c r="O18" t="n">
-        <v>2045.703836711752</v>
+        <v>2160.184497733399</v>
       </c>
       <c r="P18" t="n">
-        <v>2370.209254145837</v>
+        <v>2484.689915167484</v>
       </c>
       <c r="Q18" t="n">
         <v>2535.571599545659</v>
@@ -5624,22 +5624,22 @@
         <v>2323.528421865784</v>
       </c>
       <c r="T18" t="n">
-        <v>2135.853520318738</v>
+        <v>2125.854233501242</v>
       </c>
       <c r="U18" t="n">
-        <v>1908.971347729573</v>
+        <v>1898.972060912078</v>
       </c>
       <c r="V18" t="n">
-        <v>1674.720104255174</v>
+        <v>1664.720817437679</v>
       </c>
       <c r="W18" t="n">
-        <v>1422.205612588507</v>
+        <v>1412.206325771012</v>
       </c>
       <c r="X18" t="n">
-        <v>1215.678713994085</v>
+        <v>1205.67942717659</v>
       </c>
       <c r="Y18" t="n">
-        <v>1009.950278217735</v>
+        <v>999.9509914002402</v>
       </c>
     </row>
     <row r="19">
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>646.2135925865364</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="C19" t="n">
-        <v>646.2135925865364</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="D19" t="n">
-        <v>646.2135925865364</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="E19" t="n">
-        <v>646.2135925865364</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="F19" t="n">
-        <v>516.3307518307292</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="G19" t="n">
-        <v>347.3094344677676</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="H19" t="n">
-        <v>189.0582880536082</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I19" t="n">
         <v>50.71143199091319</v>
@@ -5694,31 +5694,31 @@
         <v>679.5420961591335</v>
       </c>
       <c r="Q19" t="n">
-        <v>646.2135925865364</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="R19" t="n">
-        <v>646.2135925865364</v>
+        <v>628.6047496418601</v>
       </c>
       <c r="S19" t="n">
-        <v>646.2135925865364</v>
+        <v>628.6047496418601</v>
       </c>
       <c r="T19" t="n">
-        <v>646.2135925865364</v>
+        <v>628.6047496418601</v>
       </c>
       <c r="U19" t="n">
-        <v>646.2135925865364</v>
+        <v>339.6938328872925</v>
       </c>
       <c r="V19" t="n">
-        <v>646.2135925865364</v>
+        <v>339.6938328872925</v>
       </c>
       <c r="W19" t="n">
-        <v>646.2135925865364</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="X19" t="n">
-        <v>646.2135925865364</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="Y19" t="n">
-        <v>646.2135925865364</v>
+        <v>50.71143199091319</v>
       </c>
     </row>
     <row r="20">
@@ -5728,40 +5728,40 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1532.130926182227</v>
+        <v>1266.894885235662</v>
       </c>
       <c r="C20" t="n">
-        <v>1161.438910344912</v>
+        <v>1266.894885235662</v>
       </c>
       <c r="D20" t="n">
-        <v>801.232109582691</v>
+        <v>1266.894885235662</v>
       </c>
       <c r="E20" t="n">
-        <v>627.3118302031619</v>
+        <v>879.9069703313312</v>
       </c>
       <c r="F20" t="n">
-        <v>627.3118302031619</v>
+        <v>468.4990274216939</v>
       </c>
       <c r="G20" t="n">
-        <v>209.5242347723812</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="H20" t="n">
-        <v>209.5242347723812</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I20" t="n">
         <v>50.71143199091319</v>
       </c>
       <c r="J20" t="n">
-        <v>154.6737472370291</v>
+        <v>154.6737472370294</v>
       </c>
       <c r="K20" t="n">
-        <v>432.7629010724806</v>
+        <v>432.762901072481</v>
       </c>
       <c r="L20" t="n">
-        <v>829.7261648535817</v>
+        <v>829.7261648535822</v>
       </c>
       <c r="M20" t="n">
-        <v>1286.636576300461</v>
+        <v>1286.636576300462</v>
       </c>
       <c r="N20" t="n">
         <v>1735.42310089741</v>
@@ -5776,28 +5776,28 @@
         <v>2535.571599545659</v>
       </c>
       <c r="R20" t="n">
-        <v>2471.287047559323</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="S20" t="n">
-        <v>2471.287047559323</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="T20" t="n">
-        <v>2251.574998418504</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="U20" t="n">
-        <v>2251.574998418504</v>
+        <v>2419.687896219299</v>
       </c>
       <c r="V20" t="n">
-        <v>1919.723259506869</v>
+        <v>2419.687896219299</v>
       </c>
       <c r="W20" t="n">
-        <v>1919.723259506869</v>
+        <v>2419.687896219299</v>
       </c>
       <c r="X20" t="n">
-        <v>1919.723259506869</v>
+        <v>2045.080220329229</v>
       </c>
       <c r="Y20" t="n">
-        <v>1919.723259506869</v>
+        <v>1654.487218560304</v>
       </c>
     </row>
     <row r="21">
@@ -5807,22 +5807,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>832.9084402786798</v>
+        <v>886.7819051675707</v>
       </c>
       <c r="C21" t="n">
-        <v>660.1553252004969</v>
+        <v>714.0287900893879</v>
       </c>
       <c r="D21" t="n">
-        <v>512.5670185594408</v>
+        <v>566.4404834483319</v>
       </c>
       <c r="E21" t="n">
-        <v>354.9574895622956</v>
+        <v>408.8309544511866</v>
       </c>
       <c r="F21" t="n">
-        <v>210.0016995789124</v>
+        <v>263.8751644678034</v>
       </c>
       <c r="G21" t="n">
-        <v>73.27740472504951</v>
+        <v>127.1508696139405</v>
       </c>
       <c r="H21" t="n">
         <v>50.71143199091319</v>
@@ -5831,52 +5831,52 @@
         <v>50.71143199091319</v>
       </c>
       <c r="J21" t="n">
-        <v>120.4127199202217</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="K21" t="n">
-        <v>181.9669871305373</v>
+        <v>296.4476481521845</v>
       </c>
       <c r="L21" t="n">
-        <v>573.239262455199</v>
+        <v>687.7199234768461</v>
       </c>
       <c r="M21" t="n">
-        <v>1082.635746712845</v>
+        <v>1197.116407734492</v>
       </c>
       <c r="N21" t="n">
-        <v>1620.913172155677</v>
+        <v>1735.393833177324</v>
       </c>
       <c r="O21" t="n">
-        <v>2045.703836711752</v>
+        <v>2160.184497733399</v>
       </c>
       <c r="P21" t="n">
-        <v>2370.209254145837</v>
+        <v>2484.689915167484</v>
       </c>
       <c r="Q21" t="n">
         <v>2535.571599545659</v>
       </c>
       <c r="R21" t="n">
-        <v>2481.698134656769</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="S21" t="n">
-        <v>2323.528421865784</v>
+        <v>2377.401886754675</v>
       </c>
       <c r="T21" t="n">
-        <v>2125.854233501242</v>
+        <v>2179.727698390133</v>
       </c>
       <c r="U21" t="n">
-        <v>1898.972060912078</v>
+        <v>1952.845525800969</v>
       </c>
       <c r="V21" t="n">
-        <v>1664.720817437679</v>
+        <v>1718.59428232657</v>
       </c>
       <c r="W21" t="n">
-        <v>1412.206325771012</v>
+        <v>1466.079790659903</v>
       </c>
       <c r="X21" t="n">
-        <v>1205.67942717659</v>
+        <v>1259.552892065481</v>
       </c>
       <c r="Y21" t="n">
-        <v>999.9509914002402</v>
+        <v>1053.824456289131</v>
       </c>
     </row>
     <row r="22">
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>50.71143199091319</v>
+        <v>314.9924154108594</v>
       </c>
       <c r="C22" t="n">
-        <v>50.71143199091319</v>
+        <v>314.9924154108594</v>
       </c>
       <c r="D22" t="n">
-        <v>50.71143199091319</v>
+        <v>314.9924154108594</v>
       </c>
       <c r="E22" t="n">
-        <v>50.71143199091319</v>
+        <v>314.9924154108594</v>
       </c>
       <c r="F22" t="n">
-        <v>50.71143199091319</v>
+        <v>314.9924154108594</v>
       </c>
       <c r="G22" t="n">
-        <v>50.71143199091319</v>
+        <v>314.9924154108594</v>
       </c>
       <c r="H22" t="n">
-        <v>50.71143199091319</v>
+        <v>156.7412689967001</v>
       </c>
       <c r="I22" t="n">
         <v>50.71143199091319</v>
@@ -5931,31 +5931,31 @@
         <v>679.5420961591335</v>
       </c>
       <c r="Q22" t="n">
-        <v>646.2135925865364</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="R22" t="n">
-        <v>646.2135925865364</v>
+        <v>529.7646791178286</v>
       </c>
       <c r="S22" t="n">
-        <v>431.4413288795672</v>
+        <v>314.9924154108594</v>
       </c>
       <c r="T22" t="n">
-        <v>431.4413288795672</v>
+        <v>314.9924154108594</v>
       </c>
       <c r="U22" t="n">
-        <v>431.4413288795672</v>
+        <v>314.9924154108594</v>
       </c>
       <c r="V22" t="n">
-        <v>339.6938328872925</v>
+        <v>314.9924154108594</v>
       </c>
       <c r="W22" t="n">
-        <v>50.71143199091319</v>
+        <v>314.9924154108594</v>
       </c>
       <c r="X22" t="n">
-        <v>50.71143199091319</v>
+        <v>314.9924154108594</v>
       </c>
       <c r="Y22" t="n">
-        <v>50.71143199091319</v>
+        <v>314.9924154108594</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>839.1910432590097</v>
+        <v>1693.101712465756</v>
       </c>
       <c r="C23" t="n">
-        <v>468.4990274216939</v>
+        <v>1322.409696628441</v>
       </c>
       <c r="D23" t="n">
-        <v>468.4990274216939</v>
+        <v>1322.409696628441</v>
       </c>
       <c r="E23" t="n">
-        <v>468.4990274216939</v>
+        <v>935.4217817241097</v>
       </c>
       <c r="F23" t="n">
-        <v>468.4990274216939</v>
+        <v>524.0138388144724</v>
       </c>
       <c r="G23" t="n">
-        <v>50.71143199091319</v>
+        <v>106.2262433836917</v>
       </c>
       <c r="H23" t="n">
         <v>50.71143199091319</v>
@@ -6001,7 +6001,7 @@
         <v>1286.636576300462</v>
       </c>
       <c r="N23" t="n">
-        <v>1735.423100897411</v>
+        <v>1735.42310089741</v>
       </c>
       <c r="O23" t="n">
         <v>2113.071138623965</v>
@@ -6016,25 +6016,25 @@
         <v>2471.287047559323</v>
       </c>
       <c r="S23" t="n">
-        <v>2292.00071659582</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="T23" t="n">
-        <v>2072.288667455001</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="U23" t="n">
-        <v>1818.371334220299</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="V23" t="n">
-        <v>1486.519595308663</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="W23" t="n">
-        <v>1132.448770055577</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="X23" t="n">
-        <v>839.1910432590097</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="Y23" t="n">
-        <v>839.1910432590097</v>
+        <v>2080.694045790398</v>
       </c>
     </row>
     <row r="24">
@@ -6044,25 +6044,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>979.6320219500381</v>
+        <v>832.9084402786798</v>
       </c>
       <c r="C24" t="n">
-        <v>806.8789068718552</v>
+        <v>660.1553252004969</v>
       </c>
       <c r="D24" t="n">
-        <v>659.290600230799</v>
+        <v>512.5670185594408</v>
       </c>
       <c r="E24" t="n">
-        <v>501.6810712336537</v>
+        <v>354.9574895622956</v>
       </c>
       <c r="F24" t="n">
-        <v>356.7252812502705</v>
+        <v>210.0016995789124</v>
       </c>
       <c r="G24" t="n">
-        <v>220.0009863964076</v>
+        <v>73.27740472504951</v>
       </c>
       <c r="H24" t="n">
-        <v>114.9213613606679</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I24" t="n">
         <v>50.71143199091319</v>
@@ -6074,16 +6074,16 @@
         <v>366.1489360814929</v>
       </c>
       <c r="L24" t="n">
-        <v>738.601607855021</v>
+        <v>757.4212114061545</v>
       </c>
       <c r="M24" t="n">
-        <v>1247.998092112667</v>
+        <v>1266.817695663801</v>
       </c>
       <c r="N24" t="n">
-        <v>1786.275517555499</v>
+        <v>1805.095121106633</v>
       </c>
       <c r="O24" t="n">
-        <v>2211.066182111574</v>
+        <v>2229.885785662707</v>
       </c>
       <c r="P24" t="n">
         <v>2535.571599545659</v>
@@ -6107,13 +6107,13 @@
         <v>1664.720817437679</v>
       </c>
       <c r="W24" t="n">
-        <v>1558.92990744237</v>
+        <v>1412.206325771012</v>
       </c>
       <c r="X24" t="n">
-        <v>1352.403008847948</v>
+        <v>1205.67942717659</v>
       </c>
       <c r="Y24" t="n">
-        <v>1146.674573071598</v>
+        <v>999.9509914002402</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2353.668880868201</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="C25" t="n">
-        <v>2184.642059725572</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="D25" t="n">
-        <v>2034.131386478583</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="E25" t="n">
-        <v>1906.740935377439</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="F25" t="n">
-        <v>1906.740935377439</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="G25" t="n">
-        <v>1906.740935377439</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="H25" t="n">
-        <v>1906.740935377439</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I25" t="n">
-        <v>1906.740935377439</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="J25" t="n">
-        <v>1906.740935377439</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="K25" t="n">
-        <v>1956.351184640836</v>
+        <v>100.3216812543103</v>
       </c>
       <c r="L25" t="n">
-        <v>2075.638838623408</v>
+        <v>219.6093352368815</v>
       </c>
       <c r="M25" t="n">
-        <v>2212.003844007148</v>
+        <v>355.9743406206215</v>
       </c>
       <c r="N25" t="n">
-        <v>2350.267656248476</v>
+        <v>494.2381528619504</v>
       </c>
       <c r="O25" t="n">
-        <v>2462.640068944411</v>
+        <v>606.6105655578849</v>
       </c>
       <c r="P25" t="n">
-        <v>2535.571599545659</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="Q25" t="n">
-        <v>2535.571599545659</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="R25" t="n">
-        <v>2535.571599545659</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="S25" t="n">
-        <v>2535.571599545659</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="T25" t="n">
-        <v>2535.571599545659</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="U25" t="n">
-        <v>2535.571599545659</v>
+        <v>390.6311794045659</v>
       </c>
       <c r="V25" t="n">
-        <v>2535.571599545659</v>
+        <v>135.1399157005869</v>
       </c>
       <c r="W25" t="n">
-        <v>2535.571599545659</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="X25" t="n">
-        <v>2535.571599545659</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="Y25" t="n">
-        <v>2535.571599545659</v>
+        <v>50.71143199091319</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>955.9917057431599</v>
+        <v>1110.290124130448</v>
       </c>
       <c r="C26" t="n">
-        <v>955.9917057431599</v>
+        <v>739.5981082931316</v>
       </c>
       <c r="D26" t="n">
-        <v>955.9917057431599</v>
+        <v>379.3913075309111</v>
       </c>
       <c r="E26" t="n">
-        <v>955.9917057431599</v>
+        <v>379.3913075309111</v>
       </c>
       <c r="F26" t="n">
-        <v>955.9917057431599</v>
+        <v>379.3913075309111</v>
       </c>
       <c r="G26" t="n">
-        <v>538.2041103123792</v>
+        <v>379.3913075309111</v>
       </c>
       <c r="H26" t="n">
-        <v>209.5242347723812</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I26" t="n">
         <v>50.71143199091319</v>
@@ -6253,25 +6253,25 @@
         <v>2471.287047559323</v>
       </c>
       <c r="S26" t="n">
-        <v>2292.00071659582</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="T26" t="n">
-        <v>2072.288667455001</v>
+        <v>2251.574998418504</v>
       </c>
       <c r="U26" t="n">
-        <v>1818.371334220299</v>
+        <v>2204.341872256795</v>
       </c>
       <c r="V26" t="n">
-        <v>1684.670206886316</v>
+        <v>1872.490133345159</v>
       </c>
       <c r="W26" t="n">
-        <v>1330.59938163323</v>
+        <v>1872.490133345159</v>
       </c>
       <c r="X26" t="n">
-        <v>955.9917057431599</v>
+        <v>1497.882457455089</v>
       </c>
       <c r="Y26" t="n">
-        <v>955.9917057431599</v>
+        <v>1497.882457455089</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>979.6320219500381</v>
+        <v>832.9084402786798</v>
       </c>
       <c r="C27" t="n">
-        <v>806.8789068718552</v>
+        <v>660.1553252004969</v>
       </c>
       <c r="D27" t="n">
-        <v>659.290600230799</v>
+        <v>512.5670185594408</v>
       </c>
       <c r="E27" t="n">
-        <v>501.6810712336537</v>
+        <v>354.9574895622956</v>
       </c>
       <c r="F27" t="n">
-        <v>356.7252812502705</v>
+        <v>210.0016995789124</v>
       </c>
       <c r="G27" t="n">
-        <v>220.0009863964076</v>
+        <v>73.27740472504951</v>
       </c>
       <c r="H27" t="n">
-        <v>114.9213613606679</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I27" t="n">
         <v>50.71143199091319</v>
       </c>
       <c r="J27" t="n">
-        <v>50.71143199091319</v>
+        <v>120.4127199202217</v>
       </c>
       <c r="K27" t="n">
-        <v>296.4476481521845</v>
+        <v>366.1489360814929</v>
       </c>
       <c r="L27" t="n">
-        <v>687.7199234768461</v>
+        <v>757.4212114061545</v>
       </c>
       <c r="M27" t="n">
-        <v>1197.116407734492</v>
+        <v>1266.817695663801</v>
       </c>
       <c r="N27" t="n">
-        <v>1735.393833177324</v>
+        <v>1620.913172155677</v>
       </c>
       <c r="O27" t="n">
-        <v>2160.184497733399</v>
+        <v>2045.703836711752</v>
       </c>
       <c r="P27" t="n">
-        <v>2484.689915167484</v>
+        <v>2370.209254145837</v>
       </c>
       <c r="Q27" t="n">
         <v>2535.571599545659</v>
       </c>
       <c r="R27" t="n">
-        <v>2535.571599545659</v>
+        <v>2481.698134656769</v>
       </c>
       <c r="S27" t="n">
-        <v>2470.252003537142</v>
+        <v>2323.528421865784</v>
       </c>
       <c r="T27" t="n">
-        <v>2272.5778151726</v>
+        <v>2125.854233501242</v>
       </c>
       <c r="U27" t="n">
-        <v>2045.695642583436</v>
+        <v>1898.972060912078</v>
       </c>
       <c r="V27" t="n">
-        <v>1811.444399109037</v>
+        <v>1664.720817437679</v>
       </c>
       <c r="W27" t="n">
-        <v>1558.92990744237</v>
+        <v>1412.206325771012</v>
       </c>
       <c r="X27" t="n">
-        <v>1352.403008847948</v>
+        <v>1205.67942717659</v>
       </c>
       <c r="Y27" t="n">
-        <v>1146.674573071598</v>
+        <v>999.9509914002402</v>
       </c>
     </row>
     <row r="28">
@@ -6423,7 +6423,7 @@
         <v>135.1399157005869</v>
       </c>
       <c r="W28" t="n">
-        <v>135.1399157005869</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="X28" t="n">
         <v>50.71143199091319</v>
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1486.519595308663</v>
+        <v>781.6102485904496</v>
       </c>
       <c r="C29" t="n">
-        <v>1486.519595308663</v>
+        <v>410.9182327531338</v>
       </c>
       <c r="D29" t="n">
-        <v>1486.519595308663</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="E29" t="n">
-        <v>1367.399648652797</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="F29" t="n">
-        <v>955.9917057431599</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="G29" t="n">
-        <v>538.2041103123792</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="H29" t="n">
-        <v>209.5242347723812</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I29" t="n">
         <v>50.71143199091319</v>
@@ -6490,25 +6490,25 @@
         <v>2471.287047559323</v>
       </c>
       <c r="S29" t="n">
-        <v>2292.00071659582</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="T29" t="n">
-        <v>2072.288667455001</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="U29" t="n">
-        <v>1818.371334220299</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="V29" t="n">
-        <v>1486.519595308663</v>
+        <v>2288.474084827172</v>
       </c>
       <c r="W29" t="n">
-        <v>1486.519595308663</v>
+        <v>1934.403259574086</v>
       </c>
       <c r="X29" t="n">
-        <v>1486.519595308663</v>
+        <v>1559.795583684016</v>
       </c>
       <c r="Y29" t="n">
-        <v>1486.519595308663</v>
+        <v>1169.202581915091</v>
       </c>
     </row>
     <row r="30">
@@ -6524,40 +6524,40 @@
         <v>660.1553252004969</v>
       </c>
       <c r="D30" t="n">
-        <v>512.5670185594408</v>
+        <v>659.290600230799</v>
       </c>
       <c r="E30" t="n">
-        <v>354.9574895622956</v>
+        <v>501.6810712336537</v>
       </c>
       <c r="F30" t="n">
-        <v>210.0016995789124</v>
+        <v>356.7252812502705</v>
       </c>
       <c r="G30" t="n">
-        <v>73.27740472504951</v>
+        <v>220.0009863964076</v>
       </c>
       <c r="H30" t="n">
-        <v>50.71143199091319</v>
+        <v>114.9213613606679</v>
       </c>
       <c r="I30" t="n">
         <v>50.71143199091319</v>
       </c>
       <c r="J30" t="n">
-        <v>120.4127199202217</v>
+        <v>101.5931163690881</v>
       </c>
       <c r="K30" t="n">
-        <v>366.1489360814929</v>
+        <v>347.3293325303594</v>
       </c>
       <c r="L30" t="n">
-        <v>757.4212114061545</v>
+        <v>738.601607855021</v>
       </c>
       <c r="M30" t="n">
-        <v>1266.817695663801</v>
+        <v>1247.998092112667</v>
       </c>
       <c r="N30" t="n">
-        <v>1805.095121106633</v>
+        <v>1786.275517555499</v>
       </c>
       <c r="O30" t="n">
-        <v>2229.885785662707</v>
+        <v>2211.066182111574</v>
       </c>
       <c r="P30" t="n">
         <v>2535.571599545659</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2280.080335841681</v>
+        <v>347.8619604403701</v>
       </c>
       <c r="C31" t="n">
-        <v>2111.053514699052</v>
+        <v>178.8351392977415</v>
       </c>
       <c r="D31" t="n">
-        <v>1960.542841452063</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="E31" t="n">
-        <v>1906.740935377439</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="F31" t="n">
-        <v>1906.740935377439</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="G31" t="n">
-        <v>1906.740935377439</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="H31" t="n">
-        <v>1906.740935377439</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I31" t="n">
-        <v>1906.740935377439</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="J31" t="n">
-        <v>1906.740935377439</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="K31" t="n">
-        <v>1956.351184640836</v>
+        <v>100.3216812543103</v>
       </c>
       <c r="L31" t="n">
-        <v>2075.638838623408</v>
+        <v>219.6093352368815</v>
       </c>
       <c r="M31" t="n">
-        <v>2212.003844007148</v>
+        <v>355.9743406206215</v>
       </c>
       <c r="N31" t="n">
-        <v>2350.267656248476</v>
+        <v>494.2381528619504</v>
       </c>
       <c r="O31" t="n">
-        <v>2462.640068944411</v>
+        <v>606.6105655578849</v>
       </c>
       <c r="P31" t="n">
-        <v>2535.571599545659</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="Q31" t="n">
-        <v>2535.571599545659</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="R31" t="n">
-        <v>2535.571599545659</v>
+        <v>529.7646791178286</v>
       </c>
       <c r="S31" t="n">
-        <v>2535.571599545659</v>
+        <v>529.7646791178286</v>
       </c>
       <c r="T31" t="n">
-        <v>2535.571599545659</v>
+        <v>529.7646791178286</v>
       </c>
       <c r="U31" t="n">
-        <v>2535.571599545659</v>
+        <v>529.7646791178286</v>
       </c>
       <c r="V31" t="n">
-        <v>2280.080335841681</v>
+        <v>529.7646791178286</v>
       </c>
       <c r="W31" t="n">
-        <v>2280.080335841681</v>
+        <v>529.7646791178286</v>
       </c>
       <c r="X31" t="n">
-        <v>2280.080335841681</v>
+        <v>529.7646791178286</v>
       </c>
       <c r="Y31" t="n">
-        <v>2280.080335841681</v>
+        <v>529.7646791178286</v>
       </c>
     </row>
     <row r="32">
@@ -6676,43 +6676,43 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1327.410966276248</v>
+        <v>1955.781561537881</v>
       </c>
       <c r="C32" t="n">
-        <v>956.7189504389327</v>
+        <v>1955.781561537881</v>
       </c>
       <c r="D32" t="n">
-        <v>596.5121496767121</v>
+        <v>1595.57476077566</v>
       </c>
       <c r="E32" t="n">
-        <v>209.5242347723812</v>
+        <v>1208.586845871329</v>
       </c>
       <c r="F32" t="n">
-        <v>209.5242347723812</v>
+        <v>797.1789029616918</v>
       </c>
       <c r="G32" t="n">
-        <v>209.5242347723812</v>
+        <v>379.3913075309111</v>
       </c>
       <c r="H32" t="n">
-        <v>209.5242347723812</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I32" t="n">
         <v>50.71143199091319</v>
       </c>
       <c r="J32" t="n">
-        <v>154.6737472370296</v>
+        <v>154.6737472370293</v>
       </c>
       <c r="K32" t="n">
-        <v>432.7629010724809</v>
+        <v>432.762901072481</v>
       </c>
       <c r="L32" t="n">
-        <v>829.726164853582</v>
+        <v>829.7261648535821</v>
       </c>
       <c r="M32" t="n">
         <v>1286.636576300462</v>
       </c>
       <c r="N32" t="n">
-        <v>1735.42310089741</v>
+        <v>1735.423100897411</v>
       </c>
       <c r="O32" t="n">
         <v>2113.071138623965</v>
@@ -6727,25 +6727,25 @@
         <v>2471.287047559323</v>
       </c>
       <c r="S32" t="n">
-        <v>2292.00071659582</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="T32" t="n">
-        <v>2072.288667455001</v>
+        <v>2343.373894862522</v>
       </c>
       <c r="U32" t="n">
-        <v>1818.371334220299</v>
+        <v>2343.373894862522</v>
       </c>
       <c r="V32" t="n">
-        <v>1681.481791529334</v>
+        <v>2343.373894862522</v>
       </c>
       <c r="W32" t="n">
-        <v>1327.410966276248</v>
+        <v>2343.373894862522</v>
       </c>
       <c r="X32" t="n">
-        <v>1327.410966276248</v>
+        <v>2343.373894862522</v>
       </c>
       <c r="Y32" t="n">
-        <v>1327.410966276248</v>
+        <v>2343.373894862522</v>
       </c>
     </row>
     <row r="33">
@@ -6755,49 +6755,49 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>979.6320219500381</v>
+        <v>832.9084402786798</v>
       </c>
       <c r="C33" t="n">
-        <v>806.8789068718552</v>
+        <v>660.1553252004969</v>
       </c>
       <c r="D33" t="n">
-        <v>659.290600230799</v>
+        <v>512.5670185594408</v>
       </c>
       <c r="E33" t="n">
-        <v>501.6810712336537</v>
+        <v>354.9574895622956</v>
       </c>
       <c r="F33" t="n">
-        <v>356.7252812502705</v>
+        <v>210.0016995789124</v>
       </c>
       <c r="G33" t="n">
-        <v>220.0009863964076</v>
+        <v>73.27740472504951</v>
       </c>
       <c r="H33" t="n">
-        <v>114.9213613606679</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I33" t="n">
         <v>50.71143199091319</v>
       </c>
       <c r="J33" t="n">
-        <v>50.71143199091319</v>
+        <v>101.5931163690881</v>
       </c>
       <c r="K33" t="n">
-        <v>296.4476481521845</v>
+        <v>347.3293325303594</v>
       </c>
       <c r="L33" t="n">
-        <v>687.7199234768461</v>
+        <v>738.601607855021</v>
       </c>
       <c r="M33" t="n">
-        <v>1197.116407734492</v>
+        <v>1247.998092112667</v>
       </c>
       <c r="N33" t="n">
-        <v>1735.393833177324</v>
+        <v>1786.275517555499</v>
       </c>
       <c r="O33" t="n">
-        <v>2160.184497733399</v>
+        <v>2211.066182111574</v>
       </c>
       <c r="P33" t="n">
-        <v>2484.689915167484</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="Q33" t="n">
         <v>2535.571599545659</v>
@@ -6806,25 +6806,25 @@
         <v>2481.698134656769</v>
       </c>
       <c r="S33" t="n">
-        <v>2470.252003537142</v>
+        <v>2323.528421865784</v>
       </c>
       <c r="T33" t="n">
-        <v>2272.5778151726</v>
+        <v>2125.854233501242</v>
       </c>
       <c r="U33" t="n">
-        <v>2045.695642583436</v>
+        <v>1898.972060912078</v>
       </c>
       <c r="V33" t="n">
-        <v>1811.444399109037</v>
+        <v>1664.720817437679</v>
       </c>
       <c r="W33" t="n">
-        <v>1558.92990744237</v>
+        <v>1412.206325771012</v>
       </c>
       <c r="X33" t="n">
-        <v>1352.403008847948</v>
+        <v>1205.67942717659</v>
       </c>
       <c r="Y33" t="n">
-        <v>1146.674573071598</v>
+        <v>999.9509914002402</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2307.146993553428</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="C34" t="n">
-        <v>2307.146993553428</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="D34" t="n">
-        <v>2156.636320306438</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="E34" t="n">
-        <v>2008.177103969874</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="F34" t="n">
-        <v>1906.740935377439</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="G34" t="n">
-        <v>1906.740935377439</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="H34" t="n">
-        <v>1906.740935377439</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I34" t="n">
-        <v>1906.740935377439</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="J34" t="n">
-        <v>1906.740935377439</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="K34" t="n">
-        <v>1956.351184640836</v>
+        <v>100.3216812543103</v>
       </c>
       <c r="L34" t="n">
-        <v>2075.638838623408</v>
+        <v>219.6093352368815</v>
       </c>
       <c r="M34" t="n">
-        <v>2212.003844007148</v>
+        <v>355.9743406206215</v>
       </c>
       <c r="N34" t="n">
-        <v>2350.267656248476</v>
+        <v>494.2381528619504</v>
       </c>
       <c r="O34" t="n">
-        <v>2462.640068944411</v>
+        <v>606.6105655578849</v>
       </c>
       <c r="P34" t="n">
-        <v>2535.571599545659</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="Q34" t="n">
-        <v>2535.571599545659</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="R34" t="n">
-        <v>2535.571599545659</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="S34" t="n">
-        <v>2535.571599545659</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="T34" t="n">
-        <v>2535.571599545659</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="U34" t="n">
-        <v>2535.571599545659</v>
+        <v>595.1850965912715</v>
       </c>
       <c r="V34" t="n">
-        <v>2535.571599545659</v>
+        <v>339.6938328872925</v>
       </c>
       <c r="W34" t="n">
-        <v>2535.571599545659</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="X34" t="n">
-        <v>2307.146993553428</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="Y34" t="n">
-        <v>2307.146993553428</v>
+        <v>50.71143199091319</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2160.963923655589</v>
+        <v>978.236919328654</v>
       </c>
       <c r="C35" t="n">
-        <v>2114.594364319349</v>
+        <v>978.236919328654</v>
       </c>
       <c r="D35" t="n">
-        <v>1754.387563557128</v>
+        <v>978.236919328654</v>
       </c>
       <c r="E35" t="n">
-        <v>1367.399648652797</v>
+        <v>978.236919328654</v>
       </c>
       <c r="F35" t="n">
-        <v>955.9917057431599</v>
+        <v>566.8289764190167</v>
       </c>
       <c r="G35" t="n">
-        <v>538.2041103123792</v>
+        <v>149.041380988236</v>
       </c>
       <c r="H35" t="n">
-        <v>209.5242347723812</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I35" t="n">
         <v>50.71143199091319</v>
@@ -6949,7 +6949,7 @@
         <v>1286.636576300462</v>
       </c>
       <c r="N35" t="n">
-        <v>1735.42310089741</v>
+        <v>1735.423100897411</v>
       </c>
       <c r="O35" t="n">
         <v>2113.071138623965</v>
@@ -6961,28 +6961,28 @@
         <v>2535.571599545659</v>
       </c>
       <c r="R35" t="n">
-        <v>2535.571599545659</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="S35" t="n">
-        <v>2535.571599545659</v>
+        <v>2292.00071659582</v>
       </c>
       <c r="T35" t="n">
-        <v>2535.571599545659</v>
+        <v>2072.288667455001</v>
       </c>
       <c r="U35" t="n">
-        <v>2535.571599545659</v>
+        <v>2072.288667455001</v>
       </c>
       <c r="V35" t="n">
-        <v>2535.571599545659</v>
+        <v>1740.436928543366</v>
       </c>
       <c r="W35" t="n">
-        <v>2535.571599545659</v>
+        <v>1740.436928543366</v>
       </c>
       <c r="X35" t="n">
-        <v>2160.963923655589</v>
+        <v>1365.829252653295</v>
       </c>
       <c r="Y35" t="n">
-        <v>2160.963923655589</v>
+        <v>1365.829252653295</v>
       </c>
     </row>
     <row r="36">
@@ -6992,25 +6992,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>979.6320219500381</v>
+        <v>832.9084402786798</v>
       </c>
       <c r="C36" t="n">
-        <v>806.8789068718552</v>
+        <v>660.1553252004969</v>
       </c>
       <c r="D36" t="n">
-        <v>659.290600230799</v>
+        <v>512.5670185594408</v>
       </c>
       <c r="E36" t="n">
-        <v>501.6810712336537</v>
+        <v>354.9574895622956</v>
       </c>
       <c r="F36" t="n">
-        <v>356.7252812502705</v>
+        <v>210.0016995789124</v>
       </c>
       <c r="G36" t="n">
-        <v>220.0009863964076</v>
+        <v>155.7910570266529</v>
       </c>
       <c r="H36" t="n">
-        <v>114.9213613606679</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I36" t="n">
         <v>50.71143199091319</v>
@@ -7028,10 +7028,10 @@
         <v>1266.817695663801</v>
       </c>
       <c r="N36" t="n">
-        <v>1805.095121106633</v>
+        <v>1620.913172155677</v>
       </c>
       <c r="O36" t="n">
-        <v>2229.885785662707</v>
+        <v>2045.703836711752</v>
       </c>
       <c r="P36" t="n">
         <v>2370.209254145837</v>
@@ -7043,25 +7043,25 @@
         <v>2481.698134656769</v>
       </c>
       <c r="S36" t="n">
-        <v>2470.252003537142</v>
+        <v>2323.528421865784</v>
       </c>
       <c r="T36" t="n">
-        <v>2272.5778151726</v>
+        <v>2125.854233501242</v>
       </c>
       <c r="U36" t="n">
-        <v>2045.695642583436</v>
+        <v>1898.972060912078</v>
       </c>
       <c r="V36" t="n">
-        <v>1811.444399109037</v>
+        <v>1664.720817437679</v>
       </c>
       <c r="W36" t="n">
-        <v>1558.92990744237</v>
+        <v>1412.206325771012</v>
       </c>
       <c r="X36" t="n">
-        <v>1352.403008847948</v>
+        <v>1205.67942717659</v>
       </c>
       <c r="Y36" t="n">
-        <v>1146.674573071598</v>
+        <v>999.9509914002402</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1906.740935377439</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="C37" t="n">
-        <v>1906.740935377439</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="D37" t="n">
-        <v>1906.740935377439</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="E37" t="n">
-        <v>1906.740935377439</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="F37" t="n">
-        <v>1906.740935377439</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="G37" t="n">
-        <v>1906.740935377439</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="H37" t="n">
-        <v>1906.740935377439</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I37" t="n">
-        <v>1906.740935377439</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="J37" t="n">
-        <v>1906.740935377439</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="K37" t="n">
-        <v>1956.351184640836</v>
+        <v>100.3216812543103</v>
       </c>
       <c r="L37" t="n">
-        <v>2075.638838623408</v>
+        <v>219.6093352368815</v>
       </c>
       <c r="M37" t="n">
-        <v>2212.003844007148</v>
+        <v>355.9743406206215</v>
       </c>
       <c r="N37" t="n">
-        <v>2350.267656248476</v>
+        <v>494.2381528619504</v>
       </c>
       <c r="O37" t="n">
-        <v>2462.640068944411</v>
+        <v>606.6105655578849</v>
       </c>
       <c r="P37" t="n">
-        <v>2535.571599545659</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="Q37" t="n">
-        <v>2535.571599545659</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="R37" t="n">
-        <v>2535.571599545659</v>
+        <v>529.7646791178286</v>
       </c>
       <c r="S37" t="n">
-        <v>2535.571599545659</v>
+        <v>529.7646791178286</v>
       </c>
       <c r="T37" t="n">
-        <v>2535.571599545659</v>
+        <v>529.7646791178286</v>
       </c>
       <c r="U37" t="n">
-        <v>2390.65680507365</v>
+        <v>529.7646791178286</v>
       </c>
       <c r="V37" t="n">
-        <v>2135.165541369671</v>
+        <v>529.7646791178286</v>
       </c>
       <c r="W37" t="n">
-        <v>2135.165541369671</v>
+        <v>279.1360379831448</v>
       </c>
       <c r="X37" t="n">
-        <v>1906.740935377439</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="Y37" t="n">
-        <v>1906.740935377439</v>
+        <v>50.71143199091319</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1001.411977115347</v>
+        <v>1686.890522342696</v>
       </c>
       <c r="C38" t="n">
-        <v>630.7199612780308</v>
+        <v>1316.19850650538</v>
       </c>
       <c r="D38" t="n">
-        <v>270.5131605158102</v>
+        <v>955.9917057431599</v>
       </c>
       <c r="E38" t="n">
-        <v>270.5131605158102</v>
+        <v>955.9917057431599</v>
       </c>
       <c r="F38" t="n">
-        <v>270.5131605158102</v>
+        <v>955.9917057431599</v>
       </c>
       <c r="G38" t="n">
-        <v>50.71143199091319</v>
+        <v>538.2041103123792</v>
       </c>
       <c r="H38" t="n">
-        <v>50.71143199091319</v>
+        <v>209.5242347723812</v>
       </c>
       <c r="I38" t="n">
         <v>50.71143199091319</v>
@@ -7186,7 +7186,7 @@
         <v>1286.636576300462</v>
       </c>
       <c r="N38" t="n">
-        <v>1735.42310089741</v>
+        <v>1735.423100897411</v>
       </c>
       <c r="O38" t="n">
         <v>2113.071138623965</v>
@@ -7201,25 +7201,25 @@
         <v>2535.571599545659</v>
       </c>
       <c r="S38" t="n">
-        <v>2535.571599545659</v>
+        <v>2356.285268582156</v>
       </c>
       <c r="T38" t="n">
-        <v>2315.859550404841</v>
+        <v>2136.573219441338</v>
       </c>
       <c r="U38" t="n">
-        <v>2061.942217170138</v>
+        <v>2136.573219441338</v>
       </c>
       <c r="V38" t="n">
-        <v>1730.090478258502</v>
+        <v>2136.573219441338</v>
       </c>
       <c r="W38" t="n">
-        <v>1376.019653005417</v>
+        <v>2136.573219441338</v>
       </c>
       <c r="X38" t="n">
-        <v>1001.411977115347</v>
+        <v>2136.573219441338</v>
       </c>
       <c r="Y38" t="n">
-        <v>1001.411977115347</v>
+        <v>1745.980217672412</v>
       </c>
     </row>
     <row r="39">
@@ -7229,49 +7229,49 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>979.6320219500381</v>
+        <v>886.7819051675707</v>
       </c>
       <c r="C39" t="n">
-        <v>806.8789068718552</v>
+        <v>714.0287900893879</v>
       </c>
       <c r="D39" t="n">
-        <v>659.290600230799</v>
+        <v>566.4404834483319</v>
       </c>
       <c r="E39" t="n">
-        <v>501.6810712336537</v>
+        <v>408.8309544511866</v>
       </c>
       <c r="F39" t="n">
-        <v>356.7252812502705</v>
+        <v>263.8751644678034</v>
       </c>
       <c r="G39" t="n">
-        <v>220.0009863964076</v>
+        <v>127.1508696139405</v>
       </c>
       <c r="H39" t="n">
-        <v>114.9213613606679</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I39" t="n">
         <v>50.71143199091319</v>
       </c>
       <c r="J39" t="n">
-        <v>50.71143199091319</v>
+        <v>120.4127199202217</v>
       </c>
       <c r="K39" t="n">
-        <v>296.4476481521845</v>
+        <v>366.1489360814929</v>
       </c>
       <c r="L39" t="n">
-        <v>687.7199234768461</v>
+        <v>757.4212114061545</v>
       </c>
       <c r="M39" t="n">
-        <v>1197.116407734492</v>
+        <v>1266.817695663801</v>
       </c>
       <c r="N39" t="n">
-        <v>1735.393833177324</v>
+        <v>1620.913172155677</v>
       </c>
       <c r="O39" t="n">
-        <v>2160.184497733399</v>
+        <v>2045.703836711752</v>
       </c>
       <c r="P39" t="n">
-        <v>2484.689915167484</v>
+        <v>2370.209254145837</v>
       </c>
       <c r="Q39" t="n">
         <v>2535.571599545659</v>
@@ -7280,25 +7280,25 @@
         <v>2535.571599545659</v>
       </c>
       <c r="S39" t="n">
-        <v>2470.252003537142</v>
+        <v>2377.401886754675</v>
       </c>
       <c r="T39" t="n">
-        <v>2272.5778151726</v>
+        <v>2179.727698390133</v>
       </c>
       <c r="U39" t="n">
-        <v>2045.695642583436</v>
+        <v>1952.845525800969</v>
       </c>
       <c r="V39" t="n">
-        <v>1811.444399109037</v>
+        <v>1718.59428232657</v>
       </c>
       <c r="W39" t="n">
-        <v>1558.92990744237</v>
+        <v>1466.079790659903</v>
       </c>
       <c r="X39" t="n">
-        <v>1352.403008847948</v>
+        <v>1259.552892065481</v>
       </c>
       <c r="Y39" t="n">
-        <v>1146.674573071598</v>
+        <v>1053.824456289131</v>
       </c>
     </row>
     <row r="40">
@@ -7353,22 +7353,22 @@
         <v>679.5420961591335</v>
       </c>
       <c r="Q40" t="n">
-        <v>646.2135925865364</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="R40" t="n">
-        <v>496.4361755452314</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="S40" t="n">
-        <v>496.4361755452314</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="T40" t="n">
-        <v>268.2076775571585</v>
+        <v>628.6047496418601</v>
       </c>
       <c r="U40" t="n">
-        <v>268.2076775571585</v>
+        <v>339.6938328872925</v>
       </c>
       <c r="V40" t="n">
-        <v>50.71143199091319</v>
+        <v>339.6938328872925</v>
       </c>
       <c r="W40" t="n">
         <v>50.71143199091319</v>
@@ -7387,13 +7387,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>632.5714724109656</v>
+        <v>1168.59816349478</v>
       </c>
       <c r="C41" t="n">
-        <v>410.9182327531338</v>
+        <v>797.9061476574645</v>
       </c>
       <c r="D41" t="n">
-        <v>50.71143199091319</v>
+        <v>437.699346895244</v>
       </c>
       <c r="E41" t="n">
         <v>50.71143199091319</v>
@@ -7411,19 +7411,19 @@
         <v>50.71143199091319</v>
       </c>
       <c r="J41" t="n">
-        <v>154.6737472370294</v>
+        <v>154.6737472370291</v>
       </c>
       <c r="K41" t="n">
-        <v>432.762901072481</v>
+        <v>432.7629010724806</v>
       </c>
       <c r="L41" t="n">
-        <v>829.7261648535821</v>
+        <v>829.7261648535817</v>
       </c>
       <c r="M41" t="n">
-        <v>1286.636576300462</v>
+        <v>1286.636576300461</v>
       </c>
       <c r="N41" t="n">
-        <v>1735.423100897411</v>
+        <v>1735.42310089741</v>
       </c>
       <c r="O41" t="n">
         <v>2113.071138623965</v>
@@ -7444,19 +7444,19 @@
         <v>2471.287047559323</v>
       </c>
       <c r="U41" t="n">
-        <v>2471.287047559323</v>
+        <v>2287.869666406861</v>
       </c>
       <c r="V41" t="n">
-        <v>2139.435308647688</v>
+        <v>2287.869666406861</v>
       </c>
       <c r="W41" t="n">
-        <v>1785.364483394602</v>
+        <v>1933.798841153776</v>
       </c>
       <c r="X41" t="n">
-        <v>1410.756807504532</v>
+        <v>1559.191165263705</v>
       </c>
       <c r="Y41" t="n">
-        <v>1020.163805735607</v>
+        <v>1168.59816349478</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>979.6320219500381</v>
+        <v>842.907727096175</v>
       </c>
       <c r="C42" t="n">
-        <v>806.8789068718552</v>
+        <v>670.1546120179921</v>
       </c>
       <c r="D42" t="n">
-        <v>659.290600230799</v>
+        <v>522.566305376936</v>
       </c>
       <c r="E42" t="n">
-        <v>501.6810712336537</v>
+        <v>364.9567763797908</v>
       </c>
       <c r="F42" t="n">
-        <v>356.7252812502705</v>
+        <v>220.0009863964076</v>
       </c>
       <c r="G42" t="n">
         <v>220.0009863964076</v>
       </c>
       <c r="H42" t="n">
-        <v>114.9213613606678</v>
+        <v>114.9213613606679</v>
       </c>
       <c r="I42" t="n">
         <v>50.71143199091319</v>
       </c>
       <c r="J42" t="n">
-        <v>120.4127199202217</v>
+        <v>101.5931163690881</v>
       </c>
       <c r="K42" t="n">
-        <v>366.1489360814929</v>
+        <v>347.3293325303594</v>
       </c>
       <c r="L42" t="n">
-        <v>757.4212114061546</v>
+        <v>738.601607855021</v>
       </c>
       <c r="M42" t="n">
-        <v>1082.635746712845</v>
+        <v>1247.998092112667</v>
       </c>
       <c r="N42" t="n">
-        <v>1620.913172155677</v>
+        <v>1786.275517555499</v>
       </c>
       <c r="O42" t="n">
-        <v>2045.703836711751</v>
+        <v>2211.066182111574</v>
       </c>
       <c r="P42" t="n">
-        <v>2370.209254145837</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="Q42" t="n">
         <v>2535.571599545659</v>
       </c>
       <c r="R42" t="n">
-        <v>2481.698134656769</v>
+        <v>2491.697421474264</v>
       </c>
       <c r="S42" t="n">
-        <v>2323.528421865784</v>
+        <v>2333.527708683279</v>
       </c>
       <c r="T42" t="n">
-        <v>2272.5778151726</v>
+        <v>2135.853520318738</v>
       </c>
       <c r="U42" t="n">
-        <v>2045.695642583436</v>
+        <v>1908.971347729573</v>
       </c>
       <c r="V42" t="n">
-        <v>1811.444399109037</v>
+        <v>1674.720104255174</v>
       </c>
       <c r="W42" t="n">
-        <v>1558.92990744237</v>
+        <v>1422.205612588507</v>
       </c>
       <c r="X42" t="n">
-        <v>1352.403008847948</v>
+        <v>1215.678713994085</v>
       </c>
       <c r="Y42" t="n">
-        <v>1146.674573071598</v>
+        <v>1009.950278217735</v>
       </c>
     </row>
     <row r="43">
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>101.6487785081866</v>
+        <v>666.3380140988477</v>
       </c>
       <c r="C43" t="n">
-        <v>101.6487785081866</v>
+        <v>666.3380140988477</v>
       </c>
       <c r="D43" t="n">
-        <v>101.6487785081866</v>
+        <v>515.8273408518584</v>
       </c>
       <c r="E43" t="n">
-        <v>101.6487785081866</v>
+        <v>367.3681245152936</v>
       </c>
       <c r="F43" t="n">
-        <v>50.71143199091319</v>
+        <v>219.7327493538749</v>
       </c>
       <c r="G43" t="n">
         <v>50.71143199091319</v>
@@ -7578,7 +7578,7 @@
         <v>219.6093352368815</v>
       </c>
       <c r="M43" t="n">
-        <v>355.9743406206216</v>
+        <v>355.9743406206215</v>
       </c>
       <c r="N43" t="n">
         <v>494.2381528619504</v>
@@ -7599,22 +7599,22 @@
         <v>679.5420961591335</v>
       </c>
       <c r="T43" t="n">
-        <v>679.5420961591335</v>
+        <v>666.3380140988477</v>
       </c>
       <c r="U43" t="n">
-        <v>390.6311794045659</v>
+        <v>666.3380140988477</v>
       </c>
       <c r="V43" t="n">
-        <v>390.6311794045659</v>
+        <v>666.3380140988477</v>
       </c>
       <c r="W43" t="n">
-        <v>101.6487785081866</v>
+        <v>666.3380140988477</v>
       </c>
       <c r="X43" t="n">
-        <v>101.6487785081866</v>
+        <v>666.3380140988477</v>
       </c>
       <c r="Y43" t="n">
-        <v>101.6487785081866</v>
+        <v>666.3380140988477</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1339.030887212671</v>
+        <v>1382.778588562023</v>
       </c>
       <c r="C44" t="n">
-        <v>968.3388713753553</v>
+        <v>1012.086572724707</v>
       </c>
       <c r="D44" t="n">
-        <v>608.1320706131347</v>
+        <v>1012.086572724707</v>
       </c>
       <c r="E44" t="n">
-        <v>221.1441557088039</v>
+        <v>625.0986578203763</v>
       </c>
       <c r="F44" t="n">
-        <v>221.1441557088039</v>
+        <v>213.690714910739</v>
       </c>
       <c r="G44" t="n">
         <v>50.71143199091319</v>
@@ -7648,19 +7648,19 @@
         <v>50.71143199091319</v>
       </c>
       <c r="J44" t="n">
-        <v>154.6737472370294</v>
+        <v>154.6737472370296</v>
       </c>
       <c r="K44" t="n">
-        <v>432.7629010724811</v>
+        <v>432.7629010724813</v>
       </c>
       <c r="L44" t="n">
-        <v>829.7261648535818</v>
+        <v>829.7261648535823</v>
       </c>
       <c r="M44" t="n">
-        <v>1286.636576300461</v>
+        <v>1286.636576300462</v>
       </c>
       <c r="N44" t="n">
-        <v>1735.42310089741</v>
+        <v>1735.423100897411</v>
       </c>
       <c r="O44" t="n">
         <v>2113.071138623965</v>
@@ -7672,28 +7672,28 @@
         <v>2535.571599545659</v>
       </c>
       <c r="R44" t="n">
-        <v>2471.287047559323</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="S44" t="n">
-        <v>2471.287047559323</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="T44" t="n">
-        <v>2471.287047559323</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="U44" t="n">
-        <v>2471.287047559323</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="V44" t="n">
-        <v>2471.287047559323</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="W44" t="n">
-        <v>2117.216222306238</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="X44" t="n">
-        <v>2117.216222306238</v>
+        <v>2160.963923655589</v>
       </c>
       <c r="Y44" t="n">
-        <v>1726.623220537313</v>
+        <v>1770.370921886664</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>979.6320219500381</v>
+        <v>832.9084402786798</v>
       </c>
       <c r="C45" t="n">
-        <v>806.8789068718552</v>
+        <v>660.1553252004969</v>
       </c>
       <c r="D45" t="n">
-        <v>659.290600230799</v>
+        <v>512.5670185594408</v>
       </c>
       <c r="E45" t="n">
-        <v>501.6810712336537</v>
+        <v>354.9574895622956</v>
       </c>
       <c r="F45" t="n">
-        <v>356.7252812502705</v>
+        <v>210.0016995789124</v>
       </c>
       <c r="G45" t="n">
-        <v>220.0009863964076</v>
+        <v>73.27740472504951</v>
       </c>
       <c r="H45" t="n">
-        <v>114.9213613606678</v>
+        <v>73.27740472504951</v>
       </c>
       <c r="I45" t="n">
         <v>50.71143199091319</v>
       </c>
       <c r="J45" t="n">
-        <v>120.4127199202217</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="K45" t="n">
-        <v>366.1489360814929</v>
+        <v>296.4476481521845</v>
       </c>
       <c r="L45" t="n">
-        <v>757.4212114061546</v>
+        <v>687.7199234768461</v>
       </c>
       <c r="M45" t="n">
-        <v>1266.817695663801</v>
+        <v>1197.116407734492</v>
       </c>
       <c r="N45" t="n">
-        <v>1805.095121106633</v>
+        <v>1735.393833177324</v>
       </c>
       <c r="O45" t="n">
-        <v>2229.885785662707</v>
+        <v>2160.184497733399</v>
       </c>
       <c r="P45" t="n">
-        <v>2370.209254145837</v>
+        <v>2484.689915167484</v>
       </c>
       <c r="Q45" t="n">
         <v>2535.571599545659</v>
       </c>
       <c r="R45" t="n">
-        <v>2535.571599545659</v>
+        <v>2481.698134656769</v>
       </c>
       <c r="S45" t="n">
-        <v>2470.252003537142</v>
+        <v>2323.528421865784</v>
       </c>
       <c r="T45" t="n">
-        <v>2272.5778151726</v>
+        <v>2125.854233501242</v>
       </c>
       <c r="U45" t="n">
-        <v>2045.695642583436</v>
+        <v>1898.972060912078</v>
       </c>
       <c r="V45" t="n">
-        <v>1811.444399109037</v>
+        <v>1664.720817437679</v>
       </c>
       <c r="W45" t="n">
-        <v>1558.92990744237</v>
+        <v>1412.206325771012</v>
       </c>
       <c r="X45" t="n">
-        <v>1352.403008847948</v>
+        <v>1205.67942717659</v>
       </c>
       <c r="Y45" t="n">
-        <v>1146.674573071598</v>
+        <v>999.9509914002402</v>
       </c>
     </row>
     <row r="46">
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>679.5420961591335</v>
+        <v>515.8273408518584</v>
       </c>
       <c r="C46" t="n">
-        <v>679.5420961591335</v>
+        <v>515.8273408518584</v>
       </c>
       <c r="D46" t="n">
-        <v>679.5420961591335</v>
+        <v>515.8273408518584</v>
       </c>
       <c r="E46" t="n">
-        <v>679.5420961591335</v>
+        <v>367.3681245152936</v>
       </c>
       <c r="F46" t="n">
-        <v>531.9067209977148</v>
+        <v>219.7327493538749</v>
       </c>
       <c r="G46" t="n">
-        <v>397.1619332101088</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="H46" t="n">
-        <v>238.9107867959494</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I46" t="n">
-        <v>100.5639307332544</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="J46" t="n">
         <v>50.71143199091319</v>
@@ -7815,7 +7815,7 @@
         <v>219.6093352368815</v>
       </c>
       <c r="M46" t="n">
-        <v>355.9743406206216</v>
+        <v>355.9743406206215</v>
       </c>
       <c r="N46" t="n">
         <v>494.2381528619504</v>
@@ -7851,7 +7851,7 @@
         <v>679.5420961591335</v>
       </c>
       <c r="Y46" t="n">
-        <v>679.5420961591335</v>
+        <v>515.8273408518584</v>
       </c>
     </row>
   </sheetData>
@@ -7990,7 +7990,7 @@
         <v>467.4940748325458</v>
       </c>
       <c r="N2" t="n">
-        <v>454.8408013884634</v>
+        <v>454.8408013884635</v>
       </c>
       <c r="O2" t="n">
         <v>396.0321885132552</v>
@@ -7999,7 +7999,7 @@
         <v>334.6706564983419</v>
       </c>
       <c r="Q2" t="n">
-        <v>220.8075902863009</v>
+        <v>220.807590286301</v>
       </c>
       <c r="R2" t="n">
         <v>68.34507666790174</v>
@@ -8057,28 +8057,28 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J3" t="n">
-        <v>131.1346767540252</v>
+        <v>123.666686</v>
       </c>
       <c r="K3" t="n">
-        <v>134.395403</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L3" t="n">
-        <v>385.6739591155975</v>
+        <v>335.0496189120709</v>
       </c>
       <c r="M3" t="n">
-        <v>412.8644904155703</v>
+        <v>138.5806830739679</v>
       </c>
       <c r="N3" t="n">
-        <v>329.1923644619304</v>
+        <v>402.3419766228525</v>
       </c>
       <c r="O3" t="n">
         <v>409.6168120477987</v>
       </c>
       <c r="P3" t="n">
-        <v>130.625047228972</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q3" t="n">
-        <v>218.4803792452831</v>
+        <v>136.482229733871</v>
       </c>
       <c r="R3" t="n">
         <v>47.34253660377365</v>
@@ -8300,22 +8300,22 @@
         <v>275.0438464930818</v>
       </c>
       <c r="L6" t="n">
-        <v>135.0905202853774</v>
+        <v>385.6739591155975</v>
       </c>
       <c r="M6" t="n">
-        <v>249.0736414352243</v>
+        <v>412.8644904155703</v>
       </c>
       <c r="N6" t="n">
-        <v>402.3419766228525</v>
+        <v>270.5420704802609</v>
       </c>
       <c r="O6" t="n">
         <v>409.6168120477987</v>
       </c>
       <c r="P6" t="n">
-        <v>331.2012793855346</v>
+        <v>130.625047228972</v>
       </c>
       <c r="Q6" t="n">
-        <v>218.4803792452831</v>
+        <v>136.482229733871</v>
       </c>
       <c r="R6" t="n">
         <v>47.34253660377365</v>
@@ -8531,28 +8531,28 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J9" t="n">
-        <v>123.666686</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K9" t="n">
-        <v>142.4213567781433</v>
+        <v>143.2439403504901</v>
       </c>
       <c r="L9" t="n">
         <v>385.6739591155975</v>
       </c>
       <c r="M9" t="n">
-        <v>412.8644904155704</v>
+        <v>412.8644904155703</v>
       </c>
       <c r="N9" t="n">
-        <v>128.05816928125</v>
+        <v>402.3419766228525</v>
       </c>
       <c r="O9" t="n">
         <v>409.6168120477987</v>
       </c>
       <c r="P9" t="n">
-        <v>331.2012793855346</v>
+        <v>130.625047228972</v>
       </c>
       <c r="Q9" t="n">
-        <v>218.4803792452831</v>
+        <v>136.482229733871</v>
       </c>
       <c r="R9" t="n">
         <v>47.34253660377365</v>
@@ -8768,7 +8768,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J12" t="n">
-        <v>131.1346767540252</v>
+        <v>60.72933541128936</v>
       </c>
       <c r="K12" t="n">
         <v>275.0438464930818</v>
@@ -8780,7 +8780,7 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N12" t="n">
-        <v>479.5063687605953</v>
+        <v>498.5160693172957</v>
       </c>
       <c r="O12" t="n">
         <v>409.6168120477987</v>
@@ -8789,7 +8789,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q12" t="n">
-        <v>51.44770712425046</v>
+        <v>102.843347910286</v>
       </c>
       <c r="R12" t="n">
         <v>47.34253660377365</v>
@@ -9005,13 +9005,13 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J15" t="n">
-        <v>131.1346767540252</v>
+        <v>112.1249761973247</v>
       </c>
       <c r="K15" t="n">
         <v>275.0438464930818</v>
       </c>
       <c r="L15" t="n">
-        <v>199.6315864378647</v>
+        <v>385.6739591155975</v>
       </c>
       <c r="M15" t="n">
         <v>484.3332662999999</v>
@@ -9026,7 +9026,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q15" t="n">
-        <v>218.4803792452831</v>
+        <v>51.44770712425047</v>
       </c>
       <c r="R15" t="n">
         <v>47.34253660377365</v>
@@ -9242,7 +9242,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J18" t="n">
-        <v>131.1346767540252</v>
+        <v>60.72933541128936</v>
       </c>
       <c r="K18" t="n">
         <v>275.0438464930818</v>
@@ -9254,7 +9254,7 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N18" t="n">
-        <v>312.4736966395628</v>
+        <v>498.5160693172957</v>
       </c>
       <c r="O18" t="n">
         <v>409.6168120477987</v>
@@ -9263,7 +9263,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q18" t="n">
-        <v>218.4803792452831</v>
+        <v>102.843347910286</v>
       </c>
       <c r="R18" t="n">
         <v>47.34253660377365</v>
@@ -9479,10 +9479,10 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J21" t="n">
-        <v>131.1346767540252</v>
+        <v>60.72933541128936</v>
       </c>
       <c r="K21" t="n">
-        <v>89.00147381534887</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L21" t="n">
         <v>385.6739591155975</v>
@@ -9500,7 +9500,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q21" t="n">
-        <v>218.4803792452831</v>
+        <v>102.843347910286</v>
       </c>
       <c r="R21" t="n">
         <v>47.34253660377365</v>
@@ -9722,7 +9722,7 @@
         <v>275.0438464930818</v>
       </c>
       <c r="L24" t="n">
-        <v>366.664258558897</v>
+        <v>385.6739591155975</v>
       </c>
       <c r="M24" t="n">
         <v>484.3332662999999</v>
@@ -9734,7 +9734,7 @@
         <v>409.6168120477987</v>
       </c>
       <c r="P24" t="n">
-        <v>331.2012793855346</v>
+        <v>312.1915788288343</v>
       </c>
       <c r="Q24" t="n">
         <v>51.44770712425047</v>
@@ -9953,7 +9953,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J27" t="n">
-        <v>60.72933541128936</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K27" t="n">
         <v>275.0438464930818</v>
@@ -9965,7 +9965,7 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N27" t="n">
-        <v>498.5160693172957</v>
+        <v>312.4736966395628</v>
       </c>
       <c r="O27" t="n">
         <v>409.6168120477987</v>
@@ -9974,7 +9974,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q27" t="n">
-        <v>102.843347910286</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R27" t="n">
         <v>47.34253660377365</v>
@@ -10190,7 +10190,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J30" t="n">
-        <v>131.1346767540252</v>
+        <v>112.1249761973247</v>
       </c>
       <c r="K30" t="n">
         <v>275.0438464930818</v>
@@ -10208,7 +10208,7 @@
         <v>409.6168120477987</v>
       </c>
       <c r="P30" t="n">
-        <v>312.1915788288343</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q30" t="n">
         <v>51.44770712425047</v>
@@ -10427,7 +10427,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J33" t="n">
-        <v>60.72933541128936</v>
+        <v>112.1249761973247</v>
       </c>
       <c r="K33" t="n">
         <v>275.0438464930818</v>
@@ -10448,7 +10448,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q33" t="n">
-        <v>102.8433479102859</v>
+        <v>51.44770712425047</v>
       </c>
       <c r="R33" t="n">
         <v>47.34253660377365</v>
@@ -10676,13 +10676,13 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N36" t="n">
-        <v>498.5160693172957</v>
+        <v>312.4736966395628</v>
       </c>
       <c r="O36" t="n">
         <v>409.6168120477987</v>
       </c>
       <c r="P36" t="n">
-        <v>145.1589067078019</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q36" t="n">
         <v>218.4803792452831</v>
@@ -10901,7 +10901,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J39" t="n">
-        <v>60.72933541128936</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K39" t="n">
         <v>275.0438464930818</v>
@@ -10913,7 +10913,7 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N39" t="n">
-        <v>498.5160693172957</v>
+        <v>312.4736966395628</v>
       </c>
       <c r="O39" t="n">
         <v>409.6168120477987</v>
@@ -10922,7 +10922,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q39" t="n">
-        <v>102.8433479102859</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R39" t="n">
         <v>47.34253660377365</v>
@@ -11074,7 +11074,7 @@
         <v>454.8408013884635</v>
       </c>
       <c r="O41" t="n">
-        <v>396.0321885132549</v>
+        <v>396.0321885132552</v>
       </c>
       <c r="P41" t="n">
         <v>334.6706564983419</v>
@@ -11138,7 +11138,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J42" t="n">
-        <v>131.1346767540252</v>
+        <v>112.1249761973247</v>
       </c>
       <c r="K42" t="n">
         <v>275.0438464930818</v>
@@ -11147,7 +11147,7 @@
         <v>385.6739591155975</v>
       </c>
       <c r="M42" t="n">
-        <v>298.2908936222665</v>
+        <v>484.3332662999999</v>
       </c>
       <c r="N42" t="n">
         <v>498.5160693172957</v>
@@ -11159,7 +11159,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q42" t="n">
-        <v>218.4803792452831</v>
+        <v>51.44770712425047</v>
       </c>
       <c r="R42" t="n">
         <v>47.34253660377365</v>
@@ -11375,7 +11375,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J45" t="n">
-        <v>131.1346767540252</v>
+        <v>60.72933541128936</v>
       </c>
       <c r="K45" t="n">
         <v>275.0438464930818</v>
@@ -11393,10 +11393,10 @@
         <v>409.6168120477987</v>
       </c>
       <c r="P45" t="n">
-        <v>145.1589067078015</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q45" t="n">
-        <v>218.4803792452831</v>
+        <v>102.843347910286</v>
       </c>
       <c r="R45" t="n">
         <v>47.34253660377365</v>
@@ -23257,13 +23257,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>383.716409991395</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>366.9850956789426</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>383.1180357552875</v>
@@ -23272,13 +23272,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>413.6097194764729</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>325.3930767845979</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>157.2246747536534</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,28 +23305,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>63.64170646647294</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>177.493467653868</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.5149286494106</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.3781599023558</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W11" t="n">
-        <v>232.6013698112475</v>
+        <v>162.6673239092378</v>
       </c>
       <c r="X11" t="n">
-        <v>370.8615991311694</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.6870717512358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23354,10 +23354,10 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>28.3537855385853</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>63.56783007605712</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23384,10 +23384,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>53.33473024000174</v>
       </c>
       <c r="S12" t="n">
-        <v>145.2563458546447</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -23439,7 +23439,7 @@
         <v>136.9633875020681</v>
       </c>
       <c r="J13" t="n">
-        <v>46.65723171423441</v>
+        <v>49.35397375491781</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,25 +23460,25 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>32.99521853687121</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>148.2796428708918</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>212.6245410698995</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>225.9462130081922</v>
       </c>
       <c r="U13" t="n">
-        <v>286.0218075870219</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.9363510669392</v>
+        <v>202.5083780148385</v>
       </c>
       <c r="W13" t="n">
-        <v>286.0925768874155</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>226.1403599323093</v>
@@ -23497,10 +23497,10 @@
         <v>383.716409991395</v>
       </c>
       <c r="C14" t="n">
-        <v>366.9850956789426</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>293.2607997980595</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23509,13 +23509,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>265.026191340929</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>325.3930767845979</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>157.2246747536534</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,10 +23542,10 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>63.64170646647294</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>177.493467653868</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23554,7 +23554,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>328.5332215225193</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>350.5301170005546</v>
@@ -23582,19 +23582,19 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>1.750113771095243</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>135.3570519053243</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>9.899293949320239</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23664,19 +23664,19 @@
         <v>146.9746241731992</v>
       </c>
       <c r="F16" t="n">
-        <v>33.93376427960212</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>167.3311041893321</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>156.6686349500177</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>136.9633875020681</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>49.35397375491781</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23709,13 +23709,13 @@
         <v>225.9462130081922</v>
       </c>
       <c r="U16" t="n">
-        <v>286.0218075870219</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.9363510669392</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.0925768874155</v>
+        <v>202.5083780148385</v>
       </c>
       <c r="X16" t="n">
         <v>226.1403599323093</v>
@@ -23731,16 +23731,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>333.9340427962902</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>177.4819175006602</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23752,7 +23752,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>157.2246747536534</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23794,13 +23794,13 @@
         <v>328.5332215225193</v>
       </c>
       <c r="W17" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>370.8615991311694</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.6870717512358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23810,7 +23810,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>145.2563458546446</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -23825,7 +23825,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>135.3570519053243</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -23864,7 +23864,7 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>9.899293949320542</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -23901,16 +23901,16 @@
         <v>146.9746241731992</v>
       </c>
       <c r="F19" t="n">
-        <v>17.57500906155545</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>167.3311041893321</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>156.6686349500177</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>136.9633875020681</v>
       </c>
       <c r="J19" t="n">
         <v>49.35397375491781</v>
@@ -23934,10 +23934,10 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>32.99521853687121</v>
       </c>
       <c r="R19" t="n">
-        <v>148.2796428708918</v>
+        <v>97.85166981879112</v>
       </c>
       <c r="S19" t="n">
         <v>212.6245410698995</v>
@@ -23946,13 +23946,13 @@
         <v>225.9462130081922</v>
       </c>
       <c r="U19" t="n">
-        <v>286.0218075870219</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.9363510669392</v>
       </c>
       <c r="W19" t="n">
-        <v>286.0925768874155</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>226.1403599323093</v>
@@ -23971,16 +23971,16 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E20" t="n">
-        <v>210.9369591695536</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>407.2938634805408</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -23989,7 +23989,7 @@
         <v>325.3930767845979</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>157.2246747536534</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24016,28 +24016,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>63.64170646647294</v>
       </c>
       <c r="S20" t="n">
         <v>177.493467653868</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>217.5149286494106</v>
       </c>
       <c r="U20" t="n">
-        <v>251.3781599023558</v>
+        <v>136.6532936092586</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W20" t="n">
         <v>350.5301170005546</v>
       </c>
       <c r="X20" t="n">
-        <v>370.8615991311694</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.6870717512358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24065,7 +24065,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>81.68851577858739</v>
+        <v>28.3537855385853</v>
       </c>
       <c r="I21" t="n">
         <v>63.56783007605712</v>
@@ -24095,7 +24095,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>53.33473024000174</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -24144,10 +24144,10 @@
         <v>167.3311041893321</v>
       </c>
       <c r="H22" t="n">
-        <v>156.6686349500177</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>136.9633875020681</v>
+        <v>31.99384886633906</v>
       </c>
       <c r="J22" t="n">
         <v>49.35397375491781</v>
@@ -24171,10 +24171,10 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>32.99521853687121</v>
       </c>
       <c r="R22" t="n">
-        <v>148.2796428708918</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24186,10 +24186,10 @@
         <v>286.0218075870219</v>
       </c>
       <c r="V22" t="n">
-        <v>162.1063300345872</v>
+        <v>252.9363510669392</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X22" t="n">
         <v>226.1403599323093</v>
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>383.716409991395</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -24214,16 +24214,16 @@
         <v>356.6047327545984</v>
       </c>
       <c r="E23" t="n">
-        <v>383.1180357552875</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>407.2938634805408</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>325.3930767845979</v>
+        <v>270.4334135057472</v>
       </c>
       <c r="I23" t="n">
         <v>157.2246747536534</v>
@@ -24256,25 +24256,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>177.493467653868</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>217.5149286494106</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.3781599023558</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X23" t="n">
-        <v>80.53644960256742</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.6870717512358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24302,10 +24302,10 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>81.6885157785874</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>63.56783007605712</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24347,7 +24347,7 @@
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>145.2563458546444</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -24363,16 +24363,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>180.0836914906838</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.3365529312023</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>149.0055665145194</v>
       </c>
       <c r="E25" t="n">
-        <v>20.85807758306665</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F25" t="n">
         <v>146.1590214098045</v>
@@ -24420,13 +24420,13 @@
         <v>225.9462130081922</v>
       </c>
       <c r="U25" t="n">
-        <v>286.0218075870219</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.9363510669392</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.0925768874155</v>
+        <v>202.5083780148385</v>
       </c>
       <c r="X25" t="n">
         <v>226.1403599323093</v>
@@ -24442,13 +24442,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>383.716409991395</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>366.9850956789426</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>383.1180357552875</v>
@@ -24457,13 +24457,13 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>413.6097194764729</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>157.2246747536534</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,19 +24493,19 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>177.493467653868</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>204.6173650022633</v>
       </c>
       <c r="V26" t="n">
-        <v>196.1691054618761</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -24539,10 +24539,10 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>81.6885157785874</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>63.56783007605712</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24569,10 +24569,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>53.33473024000174</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>91.92161561464282</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -24663,10 +24663,10 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.0925768874155</v>
+        <v>202.5083780148385</v>
       </c>
       <c r="X28" t="n">
-        <v>142.5561610597322</v>
+        <v>226.1403599323093</v>
       </c>
       <c r="Y28" t="n">
         <v>218.7486738677682</v>
@@ -24679,28 +24679,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>383.716409991395</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>366.9850956789426</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>265.1892885659803</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>413.6097194764729</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>325.3930767845979</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>157.2246747536534</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,25 +24730,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>177.493467653868</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>217.5149286494106</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.3781599023558</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>147.5483884176895</v>
       </c>
       <c r="W29" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>370.8615991311694</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.6870717512358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24764,7 +24764,7 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>145.2563458546446</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -24776,10 +24776,10 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>81.68851577858739</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>63.56783007605712</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24837,16 +24837,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>180.0836914906838</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>22.16309628075933</v>
       </c>
       <c r="E31" t="n">
-        <v>93.71073715932191</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F31" t="n">
         <v>146.1590214098045</v>
@@ -24885,7 +24885,7 @@
         <v>32.99521853687121</v>
       </c>
       <c r="R31" t="n">
-        <v>148.2796428708918</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>212.6245410698995</v>
@@ -24897,7 +24897,7 @@
         <v>286.0218075870219</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.9363510669392</v>
       </c>
       <c r="W31" t="n">
         <v>286.0925768874155</v>
@@ -24916,10 +24916,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>383.716409991395</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -24928,16 +24928,16 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>407.2938634805408</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>413.6097194764729</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>325.3930767845979</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>157.2246747536534</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,19 +24967,19 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>177.493467653868</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>90.88090747957777</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.3781599023558</v>
       </c>
       <c r="V32" t="n">
-        <v>193.0125742584642</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X32" t="n">
         <v>370.8615991311694</v>
@@ -25013,10 +25013,10 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>81.6885157785874</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>63.56783007605712</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25046,7 +25046,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>145.2563458546447</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -25080,13 +25080,13 @@
         <v>167.3365529312023</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>149.0055665145194</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F34" t="n">
-        <v>45.73721450329451</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G34" t="n">
         <v>167.3311041893321</v>
@@ -25131,16 +25131,16 @@
         <v>225.9462130081922</v>
       </c>
       <c r="U34" t="n">
-        <v>286.0218075870219</v>
+        <v>202.5083780148385</v>
       </c>
       <c r="V34" t="n">
-        <v>252.9363510669392</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.0925768874155</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>226.1403599323093</v>
       </c>
       <c r="Y34" t="n">
         <v>218.7486738677682</v>
@@ -25153,16 +25153,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>383.716409991395</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>321.0792319360642</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -25171,10 +25171,10 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>228.0464272772483</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>157.2246747536534</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25201,19 +25201,19 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>63.64170646647294</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>177.493467653868</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>217.5149286494106</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>251.3781599023558</v>
       </c>
       <c r="V35" t="n">
-        <v>328.5332215225193</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>350.5301170005546</v>
@@ -25247,13 +25247,13 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>81.6885157785874</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>63.56783007605712</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25283,7 +25283,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>145.2563458546447</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>32.99521853687121</v>
       </c>
       <c r="R37" t="n">
-        <v>148.2796428708918</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>212.6245410698995</v>
@@ -25368,13 +25368,13 @@
         <v>225.9462130081922</v>
       </c>
       <c r="U37" t="n">
-        <v>142.5561610597322</v>
+        <v>286.0218075870219</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.9363510669392</v>
       </c>
       <c r="W37" t="n">
-        <v>286.0925768874155</v>
+        <v>37.97022216407859</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>383.716409991395</v>
+        <v>325.2176116149761</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -25405,13 +25405,13 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G38" t="n">
-        <v>196.0060082368248</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>325.3930767845979</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>157.2246747536534</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,25 +25441,25 @@
         <v>63.64170646647294</v>
       </c>
       <c r="S38" t="n">
-        <v>177.493467653868</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.3781599023558</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.6870717512358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25487,10 +25487,10 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>28.3537855385853</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>63.56783007605712</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25520,7 +25520,7 @@
         <v>53.33473024000174</v>
       </c>
       <c r="S39" t="n">
-        <v>91.92161561464282</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -25593,25 +25593,25 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>32.99521853687121</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>148.2796428708918</v>
       </c>
       <c r="S40" t="n">
         <v>212.6245410698995</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>175.5182399560914</v>
       </c>
       <c r="U40" t="n">
-        <v>286.0218075870219</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>37.61506795635631</v>
+        <v>252.9363510669392</v>
       </c>
       <c r="W40" t="n">
-        <v>286.0925768874155</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>226.1403599323093</v>
@@ -25627,16 +25627,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C41" t="n">
-        <v>147.5483884176892</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>383.1180357552875</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>407.2938634805408</v>
@@ -25684,10 +25684,10 @@
         <v>217.5149286494106</v>
       </c>
       <c r="U41" t="n">
-        <v>251.3781599023558</v>
+        <v>69.79495256141843</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25721,7 +25721,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>135.3570519053243</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -25754,13 +25754,13 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>9.899293949320331</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>145.2563458546447</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -25791,16 +25791,16 @@
         <v>167.3365529312023</v>
       </c>
       <c r="D43" t="n">
-        <v>149.0055665145194</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.9746241731992</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>95.73104835770384</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>167.3311041893321</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>156.6686349500177</v>
@@ -25809,7 +25809,7 @@
         <v>136.9633875020681</v>
       </c>
       <c r="J43" t="n">
-        <v>49.3539737549178</v>
+        <v>49.35397375491781</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25830,7 +25830,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>32.9952185368712</v>
+        <v>32.99521853687121</v>
       </c>
       <c r="R43" t="n">
         <v>148.2796428708918</v>
@@ -25839,16 +25839,16 @@
         <v>212.6245410698995</v>
       </c>
       <c r="T43" t="n">
-        <v>225.9462130081922</v>
+        <v>212.8741717685092</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.0218075870219</v>
       </c>
       <c r="V43" t="n">
         <v>252.9363510669392</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X43" t="n">
         <v>226.1403599323093</v>
@@ -25870,16 +25870,16 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>407.2938634805408</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>244.8813229957611</v>
+        <v>252.2602293858453</v>
       </c>
       <c r="H44" t="n">
         <v>325.3930767845979</v>
@@ -25912,7 +25912,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>63.64170646647294</v>
       </c>
       <c r="S44" t="n">
         <v>177.493467653868</v>
@@ -25927,10 +25927,10 @@
         <v>328.5332215225193</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X44" t="n">
-        <v>370.8615991311694</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -25961,10 +25961,10 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>104.0288287853823</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>41.22751706926217</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25991,10 +25991,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>53.33473024000173</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>91.92161561464282</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -26031,22 +26031,22 @@
         <v>149.0055665145194</v>
       </c>
       <c r="E46" t="n">
-        <v>146.9746241731992</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>33.93376427960209</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>156.6686349500177</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>136.9633875020681</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>49.35397375491781</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26067,7 +26067,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>32.9952185368712</v>
+        <v>32.99521853687121</v>
       </c>
       <c r="R46" t="n">
         <v>148.2796428708918</v>
@@ -26091,7 +26091,7 @@
         <v>226.1403599323093</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.7486738677682</v>
+        <v>56.67106611356584</v>
       </c>
     </row>
   </sheetData>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>653869.696522743</v>
+        <v>653869.6965227431</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>653869.6965227429</v>
+        <v>653869.696522743</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>653869.6965227432</v>
+        <v>653869.696522743</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>653869.696522743</v>
+        <v>653869.6965227432</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>653869.6965227432</v>
+        <v>653869.696522743</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>653869.6965227431</v>
+        <v>653869.6965227432</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>653869.6965227431</v>
+        <v>653869.696522743</v>
       </c>
     </row>
     <row r="16">
@@ -26313,28 +26313,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>508699.6303843352</v>
+        <v>508699.6303843353</v>
       </c>
       <c r="C2" t="n">
         <v>508699.6303843353</v>
       </c>
       <c r="D2" t="n">
-        <v>508699.6303843352</v>
+        <v>508699.6303843353</v>
       </c>
       <c r="E2" t="n">
         <v>342934.9712909641</v>
       </c>
       <c r="F2" t="n">
-        <v>342934.9712909641</v>
+        <v>342934.9712909642</v>
       </c>
       <c r="G2" t="n">
-        <v>342934.9712909641</v>
+        <v>342934.9712909642</v>
       </c>
       <c r="H2" t="n">
         <v>342934.9712909642</v>
       </c>
       <c r="I2" t="n">
-        <v>342934.9712909641</v>
+        <v>342934.9712909642</v>
       </c>
       <c r="J2" t="n">
         <v>342934.9712909641</v>
@@ -26343,19 +26343,19 @@
         <v>342934.9712909642</v>
       </c>
       <c r="L2" t="n">
-        <v>342934.9712909641</v>
+        <v>342934.9712909643</v>
       </c>
       <c r="M2" t="n">
         <v>342934.9712909641</v>
       </c>
       <c r="N2" t="n">
-        <v>342934.9712909641</v>
+        <v>342934.971290964</v>
       </c>
       <c r="O2" t="n">
-        <v>342934.9712909641</v>
+        <v>342934.9712909642</v>
       </c>
       <c r="P2" t="n">
-        <v>342934.971290964</v>
+        <v>342934.9712909642</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>91918.81236773985</v>
+        <v>91918.81236773984</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>301983.9340152739</v>
+      </c>
+      <c r="C4" t="n">
+        <v>301983.9340152739</v>
+      </c>
+      <c r="D4" t="n">
         <v>301983.934015274</v>
-      </c>
-      <c r="C4" t="n">
-        <v>301983.934015274</v>
-      </c>
-      <c r="D4" t="n">
-        <v>301983.9340152739</v>
       </c>
       <c r="E4" t="n">
         <v>37068.93740564659</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>64492.82851495192</v>
+        <v>64492.82851495208</v>
       </c>
       <c r="C6" t="n">
+        <v>156411.640882692</v>
+      </c>
+      <c r="D6" t="n">
         <v>156411.6408826919</v>
       </c>
-      <c r="D6" t="n">
-        <v>156411.6408826918</v>
-      </c>
       <c r="E6" t="n">
-        <v>-95615.6571170375</v>
+        <v>-102246.2434807723</v>
       </c>
       <c r="F6" t="n">
-        <v>260573.7727696427</v>
+        <v>253943.186405908</v>
       </c>
       <c r="G6" t="n">
-        <v>260573.7727696426</v>
+        <v>253943.186405908</v>
       </c>
       <c r="H6" t="n">
-        <v>260573.7727696428</v>
+        <v>253943.1864059079</v>
       </c>
       <c r="I6" t="n">
-        <v>260573.7727696427</v>
+        <v>253943.1864059079</v>
       </c>
       <c r="J6" t="n">
-        <v>188809.0602815565</v>
+        <v>182178.4739178216</v>
       </c>
       <c r="K6" t="n">
-        <v>260573.7727696428</v>
+        <v>253943.1864059079</v>
       </c>
       <c r="L6" t="n">
-        <v>260573.7727696427</v>
+        <v>253943.186405908</v>
       </c>
       <c r="M6" t="n">
-        <v>170957.7484711052</v>
+        <v>164327.1621073704</v>
       </c>
       <c r="N6" t="n">
-        <v>260573.7727696427</v>
+        <v>253943.1864059077</v>
       </c>
       <c r="O6" t="n">
-        <v>260573.7727696427</v>
+        <v>253943.186405908</v>
       </c>
       <c r="P6" t="n">
-        <v>260573.7727696426</v>
+        <v>253943.1864059079</v>
       </c>
     </row>
   </sheetData>
@@ -26746,7 +26746,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>309.7051744303111</v>
+        <v>309.705174430311</v>
       </c>
       <c r="F3" t="n">
         <v>309.705174430311</v>
@@ -26776,10 +26776,10 @@
         <v>309.705174430311</v>
       </c>
       <c r="O3" t="n">
-        <v>309.7051744303111</v>
+        <v>309.705174430311</v>
       </c>
       <c r="P3" t="n">
-        <v>309.7051744303111</v>
+        <v>309.705174430311</v>
       </c>
     </row>
     <row r="4">
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>309.7051744303111</v>
+        <v>309.705174430311</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27387,13 +27387,13 @@
         <v>356.6047327545984</v>
       </c>
       <c r="E2" t="n">
-        <v>283.3796809496812</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F2" t="n">
-        <v>133.0100561389384</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>140.5709580622284</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>338.1439033881534</v>
@@ -27402,7 +27402,7 @@
         <v>205.224307868124</v>
       </c>
       <c r="J2" t="n">
-        <v>0.6592771345624158</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27429,16 +27429,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>205.8649517235392</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>222.9651171964204</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.4777635765444</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>328.5332215225193</v>
+        <v>109.0591832075437</v>
       </c>
       <c r="W2" t="n">
         <v>350.5301170005546</v>
@@ -27447,7 +27447,7 @@
         <v>370.8615991311694</v>
       </c>
       <c r="Y2" t="n">
-        <v>112.4032644096333</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="3">
@@ -27460,22 +27460,22 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C3" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0232102050423</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>110.4625155221328</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27508,19 +27508,19 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>148.8829366208612</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>198.3825319082687</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W3" t="n">
-        <v>190.6573243660415</v>
+        <v>249.98934675</v>
       </c>
       <c r="X3" t="n">
         <v>204.4616296084783</v>
@@ -27539,7 +27539,7 @@
         <v>180.0836914906838</v>
       </c>
       <c r="C4" t="n">
-        <v>167.3365529312023</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>149.0055665145194</v>
@@ -27563,7 +27563,7 @@
         <v>88.83884492777894</v>
       </c>
       <c r="K4" t="n">
-        <v>14.77440971783335</v>
+        <v>3.197836007427327</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27599,7 +27599,7 @@
         <v>252.9363510669392</v>
       </c>
       <c r="W4" t="n">
-        <v>107.1794502458072</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X4" t="n">
         <v>226.1403599323093</v>
@@ -27618,10 +27618,10 @@
         <v>383.716409991395</v>
       </c>
       <c r="C5" t="n">
-        <v>366.9850956789426</v>
+        <v>206.1403820149611</v>
       </c>
       <c r="D5" t="n">
-        <v>82.3209254129959</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E5" t="n">
         <v>383.1180357552875</v>
@@ -27630,16 +27630,16 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>140.5709580622284</v>
       </c>
       <c r="H5" t="n">
-        <v>249.8029287239256</v>
+        <v>338.1439033881534</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0.6592771345624158</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27663,22 +27663,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>141.8508227008771</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>205.8649517235392</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>222.9651171964204</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.4777635765444</v>
       </c>
       <c r="V5" t="n">
         <v>328.5332215225193</v>
       </c>
       <c r="W5" t="n">
-        <v>350.5301170005546</v>
+        <v>76.2463096589521</v>
       </c>
       <c r="X5" t="n">
         <v>370.8615991311694</v>
@@ -27703,19 +27703,19 @@
         <v>146.1124235746456</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G6" t="n">
         <v>136.0232102050423</v>
       </c>
       <c r="H6" t="n">
-        <v>87.60246294146515</v>
+        <v>110.4625155221328</v>
       </c>
       <c r="I6" t="n">
-        <v>86.50354346547167</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27745,22 +27745,22 @@
         <v>94.69497976109122</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>168.9616139056444</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>198.3825319082687</v>
       </c>
       <c r="U6" t="n">
         <v>224.6571770672012</v>
       </c>
       <c r="V6" t="n">
-        <v>231.9087310396551</v>
+        <v>83.11938667830125</v>
       </c>
       <c r="W6" t="n">
-        <v>249.98934675</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27779,10 +27779,10 @@
         <v>167.3365529312023</v>
       </c>
       <c r="D7" t="n">
-        <v>149.0055665145194</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.9746241731992</v>
+        <v>117.0670640461102</v>
       </c>
       <c r="F7" t="n">
         <v>146.1590214098045</v>
@@ -27821,10 +27821,10 @@
         <v>79.76069987584818</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>173.3911476697823</v>
       </c>
       <c r="S7" t="n">
-        <v>216.8354279895965</v>
+        <v>222.3574069614225</v>
       </c>
       <c r="T7" t="n">
         <v>228.3324659915077</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>164.2758613692835</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C8" t="n">
         <v>366.9850956789426</v>
@@ -27861,7 +27861,7 @@
         <v>356.6047327545984</v>
       </c>
       <c r="E8" t="n">
-        <v>383.1180357552875</v>
+        <v>145.9031881120155</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27873,10 +27873,10 @@
         <v>338.1439033881534</v>
       </c>
       <c r="I8" t="n">
-        <v>205.224307868124</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0.6592771345624158</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27900,28 +27900,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>141.8508227008771</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>205.8649517235392</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>222.9651171964204</v>
       </c>
       <c r="U8" t="n">
-        <v>251.4777635765444</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>54.2494141809168</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W8" t="n">
-        <v>76.24630965895204</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X8" t="n">
         <v>370.8615991311694</v>
       </c>
       <c r="Y8" t="n">
-        <v>112.4032644096333</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="9">
@@ -27931,25 +27931,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>50.59846856447017</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>136.0232102050423</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>110.4625155221328</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -27988,19 +27988,19 @@
         <v>198.3825319082687</v>
       </c>
       <c r="U9" t="n">
-        <v>224.6571770672012</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>231.9087310396551</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>249.98934675</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>203.671151418586</v>
+        <v>136.7509798181014</v>
       </c>
     </row>
     <row r="10">
@@ -28016,10 +28016,10 @@
         <v>167.3365529312023</v>
       </c>
       <c r="D10" t="n">
-        <v>117.0670640461102</v>
+        <v>149.0055665145194</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F10" t="n">
         <v>146.1590214098045</v>
@@ -28028,16 +28028,16 @@
         <v>167.8895889301081</v>
       </c>
       <c r="H10" t="n">
-        <v>161.6340720089168</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>153.7585467974036</v>
+        <v>151.2539018825455</v>
       </c>
       <c r="J10" t="n">
         <v>88.83884492777894</v>
       </c>
       <c r="K10" t="n">
-        <v>14.77440971783335</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -31752,13 +31752,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.245045927358034</v>
+        <v>1.245045927358033</v>
       </c>
       <c r="H11" t="n">
-        <v>12.75082660355547</v>
+        <v>12.75082660355546</v>
       </c>
       <c r="I11" t="n">
-        <v>47.99963311447064</v>
+        <v>47.99963311447063</v>
       </c>
       <c r="J11" t="n">
         <v>105.671716777104</v>
@@ -31767,10 +31767,10 @@
         <v>158.3745108821696</v>
       </c>
       <c r="L11" t="n">
-        <v>196.4775851815531</v>
+        <v>196.477585181553</v>
       </c>
       <c r="M11" t="n">
-        <v>218.6191706922065</v>
+        <v>218.6191706922064</v>
       </c>
       <c r="N11" t="n">
         <v>222.1566574333125</v>
@@ -31779,22 +31779,22 @@
         <v>209.776231993146</v>
       </c>
       <c r="P11" t="n">
-        <v>179.0391606614946</v>
+        <v>179.0391606614945</v>
       </c>
       <c r="Q11" t="n">
-        <v>134.450953387985</v>
+        <v>134.4509533879849</v>
       </c>
       <c r="R11" t="n">
-        <v>78.20911623440415</v>
+        <v>78.20911623440414</v>
       </c>
       <c r="S11" t="n">
         <v>28.37148406967122</v>
       </c>
       <c r="T11" t="n">
-        <v>5.450188547009795</v>
+        <v>5.450188547009794</v>
       </c>
       <c r="U11" t="n">
-        <v>0.09960367418864267</v>
+        <v>0.09960367418864266</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,16 +31831,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.6661582997180276</v>
+        <v>0.6661582997180275</v>
       </c>
       <c r="H12" t="n">
-        <v>6.433686736750426</v>
+        <v>6.433686736750425</v>
       </c>
       <c r="I12" t="n">
         <v>22.93571338941455</v>
       </c>
       <c r="J12" t="n">
-        <v>62.93735058871069</v>
+        <v>62.93735058871067</v>
       </c>
       <c r="K12" t="n">
         <v>107.5699566698185</v>
@@ -31852,7 +31852,7 @@
         <v>168.7893200645195</v>
       </c>
       <c r="N12" t="n">
-        <v>173.2566711183304</v>
+        <v>173.2566711183303</v>
       </c>
       <c r="O12" t="n">
         <v>158.4960056351046</v>
@@ -31861,19 +31861,19 @@
         <v>127.2070177768574</v>
       </c>
       <c r="Q12" t="n">
-        <v>85.03452260962052</v>
+        <v>85.03452260962051</v>
       </c>
       <c r="R12" t="n">
-        <v>41.36024952108949</v>
+        <v>41.36024952108948</v>
       </c>
       <c r="S12" t="n">
-        <v>12.3735982425695</v>
+        <v>12.37359824256949</v>
       </c>
       <c r="T12" t="n">
-        <v>2.685085427372225</v>
+        <v>2.685085427372224</v>
       </c>
       <c r="U12" t="n">
-        <v>0.04382620392881763</v>
+        <v>0.04382620392881762</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,10 +31910,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.5584847407759708</v>
+        <v>0.5584847407759707</v>
       </c>
       <c r="H13" t="n">
-        <v>4.96543705889909</v>
+        <v>4.965437058899089</v>
       </c>
       <c r="I13" t="n">
         <v>16.79515929533556</v>
@@ -31922,37 +31922,37 @@
         <v>39.48487117286113</v>
       </c>
       <c r="K13" t="n">
-        <v>64.88577261015368</v>
+        <v>64.88577261015367</v>
       </c>
       <c r="L13" t="n">
-        <v>83.03144955136571</v>
+        <v>83.0314495513657</v>
       </c>
       <c r="M13" t="n">
-        <v>87.54502168363693</v>
+        <v>87.54502168363692</v>
       </c>
       <c r="N13" t="n">
-        <v>85.46339674074476</v>
+        <v>85.46339674074474</v>
       </c>
       <c r="O13" t="n">
-        <v>78.93927954167997</v>
+        <v>78.93927954167995</v>
       </c>
       <c r="P13" t="n">
-        <v>67.54619082985012</v>
+        <v>67.5461908298501</v>
       </c>
       <c r="Q13" t="n">
-        <v>46.76548133897698</v>
+        <v>46.76548133897697</v>
       </c>
       <c r="R13" t="n">
         <v>25.11150479889046</v>
       </c>
       <c r="S13" t="n">
-        <v>9.732865891523051</v>
+        <v>9.732865891523049</v>
       </c>
       <c r="T13" t="n">
         <v>2.386252983315511</v>
       </c>
       <c r="U13" t="n">
-        <v>0.03046280404232572</v>
+        <v>0.03046280404232571</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -34122,13 +34122,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.245045927358034</v>
+        <v>1.245045927358033</v>
       </c>
       <c r="H41" t="n">
-        <v>12.75082660355547</v>
+        <v>12.75082660355546</v>
       </c>
       <c r="I41" t="n">
-        <v>47.99963311447064</v>
+        <v>47.99963311447063</v>
       </c>
       <c r="J41" t="n">
         <v>105.671716777104</v>
@@ -34137,10 +34137,10 @@
         <v>158.3745108821696</v>
       </c>
       <c r="L41" t="n">
-        <v>196.4775851815531</v>
+        <v>196.477585181553</v>
       </c>
       <c r="M41" t="n">
-        <v>218.6191706922065</v>
+        <v>218.6191706922064</v>
       </c>
       <c r="N41" t="n">
         <v>222.1566574333125</v>
@@ -34149,22 +34149,22 @@
         <v>209.776231993146</v>
       </c>
       <c r="P41" t="n">
-        <v>179.0391606614946</v>
+        <v>179.0391606614945</v>
       </c>
       <c r="Q41" t="n">
-        <v>134.450953387985</v>
+        <v>134.4509533879849</v>
       </c>
       <c r="R41" t="n">
-        <v>78.20911623440415</v>
+        <v>78.20911623440414</v>
       </c>
       <c r="S41" t="n">
         <v>28.37148406967122</v>
       </c>
       <c r="T41" t="n">
-        <v>5.450188547009795</v>
+        <v>5.450188547009794</v>
       </c>
       <c r="U41" t="n">
-        <v>0.09960367418864267</v>
+        <v>0.09960367418864266</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,16 +34201,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.6661582997180276</v>
+        <v>0.6661582997180275</v>
       </c>
       <c r="H42" t="n">
-        <v>6.433686736750426</v>
+        <v>6.433686736750425</v>
       </c>
       <c r="I42" t="n">
         <v>22.93571338941455</v>
       </c>
       <c r="J42" t="n">
-        <v>62.93735058871069</v>
+        <v>62.93735058871067</v>
       </c>
       <c r="K42" t="n">
         <v>107.5699566698185</v>
@@ -34222,7 +34222,7 @@
         <v>168.7893200645195</v>
       </c>
       <c r="N42" t="n">
-        <v>173.2566711183304</v>
+        <v>173.2566711183303</v>
       </c>
       <c r="O42" t="n">
         <v>158.4960056351046</v>
@@ -34231,19 +34231,19 @@
         <v>127.2070177768574</v>
       </c>
       <c r="Q42" t="n">
-        <v>85.03452260962052</v>
+        <v>85.03452260962051</v>
       </c>
       <c r="R42" t="n">
-        <v>41.36024952108949</v>
+        <v>41.36024952108948</v>
       </c>
       <c r="S42" t="n">
-        <v>12.3735982425695</v>
+        <v>12.37359824256949</v>
       </c>
       <c r="T42" t="n">
-        <v>2.685085427372225</v>
+        <v>2.685085427372224</v>
       </c>
       <c r="U42" t="n">
-        <v>0.04382620392881763</v>
+        <v>0.04382620392881762</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,10 +34280,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.5584847407759708</v>
+        <v>0.5584847407759707</v>
       </c>
       <c r="H43" t="n">
-        <v>4.96543705889909</v>
+        <v>4.965437058899089</v>
       </c>
       <c r="I43" t="n">
         <v>16.79515929533556</v>
@@ -34292,37 +34292,37 @@
         <v>39.48487117286113</v>
       </c>
       <c r="K43" t="n">
-        <v>64.88577261015368</v>
+        <v>64.88577261015367</v>
       </c>
       <c r="L43" t="n">
-        <v>83.03144955136571</v>
+        <v>83.0314495513657</v>
       </c>
       <c r="M43" t="n">
-        <v>87.54502168363693</v>
+        <v>87.54502168363692</v>
       </c>
       <c r="N43" t="n">
-        <v>85.46339674074476</v>
+        <v>85.46339674074474</v>
       </c>
       <c r="O43" t="n">
-        <v>78.93927954167997</v>
+        <v>78.93927954167995</v>
       </c>
       <c r="P43" t="n">
-        <v>67.54619082985012</v>
+        <v>67.5461908298501</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.76548133897698</v>
+        <v>46.76548133897697</v>
       </c>
       <c r="R43" t="n">
         <v>25.11150479889046</v>
       </c>
       <c r="S43" t="n">
-        <v>9.732865891523051</v>
+        <v>9.732865891523049</v>
       </c>
       <c r="T43" t="n">
         <v>2.386252983315511</v>
       </c>
       <c r="U43" t="n">
-        <v>0.03046280404232572</v>
+        <v>0.03046280404232571</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,13 +34359,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.245045927358034</v>
+        <v>1.245045927358033</v>
       </c>
       <c r="H44" t="n">
-        <v>12.75082660355547</v>
+        <v>12.75082660355546</v>
       </c>
       <c r="I44" t="n">
-        <v>47.99963311447064</v>
+        <v>47.99963311447063</v>
       </c>
       <c r="J44" t="n">
         <v>105.671716777104</v>
@@ -34374,10 +34374,10 @@
         <v>158.3745108821696</v>
       </c>
       <c r="L44" t="n">
-        <v>196.4775851815531</v>
+        <v>196.477585181553</v>
       </c>
       <c r="M44" t="n">
-        <v>218.6191706922065</v>
+        <v>218.6191706922064</v>
       </c>
       <c r="N44" t="n">
         <v>222.1566574333125</v>
@@ -34386,22 +34386,22 @@
         <v>209.776231993146</v>
       </c>
       <c r="P44" t="n">
-        <v>179.0391606614946</v>
+        <v>179.0391606614945</v>
       </c>
       <c r="Q44" t="n">
-        <v>134.450953387985</v>
+        <v>134.4509533879849</v>
       </c>
       <c r="R44" t="n">
-        <v>78.20911623440415</v>
+        <v>78.20911623440414</v>
       </c>
       <c r="S44" t="n">
         <v>28.37148406967122</v>
       </c>
       <c r="T44" t="n">
-        <v>5.450188547009795</v>
+        <v>5.450188547009794</v>
       </c>
       <c r="U44" t="n">
-        <v>0.09960367418864267</v>
+        <v>0.09960367418864266</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,16 +34438,16 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.6661582997180276</v>
+        <v>0.6661582997180275</v>
       </c>
       <c r="H45" t="n">
-        <v>6.433686736750426</v>
+        <v>6.433686736750425</v>
       </c>
       <c r="I45" t="n">
         <v>22.93571338941455</v>
       </c>
       <c r="J45" t="n">
-        <v>62.93735058871069</v>
+        <v>62.93735058871067</v>
       </c>
       <c r="K45" t="n">
         <v>107.5699566698185</v>
@@ -34459,7 +34459,7 @@
         <v>168.7893200645195</v>
       </c>
       <c r="N45" t="n">
-        <v>173.2566711183304</v>
+        <v>173.2566711183303</v>
       </c>
       <c r="O45" t="n">
         <v>158.4960056351046</v>
@@ -34468,19 +34468,19 @@
         <v>127.2070177768574</v>
       </c>
       <c r="Q45" t="n">
-        <v>85.03452260962052</v>
+        <v>85.03452260962051</v>
       </c>
       <c r="R45" t="n">
-        <v>41.36024952108949</v>
+        <v>41.36024952108948</v>
       </c>
       <c r="S45" t="n">
-        <v>12.3735982425695</v>
+        <v>12.37359824256949</v>
       </c>
       <c r="T45" t="n">
-        <v>2.685085427372225</v>
+        <v>2.685085427372224</v>
       </c>
       <c r="U45" t="n">
-        <v>0.04382620392881763</v>
+        <v>0.04382620392881762</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,10 +34517,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.5584847407759708</v>
+        <v>0.5584847407759707</v>
       </c>
       <c r="H46" t="n">
-        <v>4.96543705889909</v>
+        <v>4.965437058899089</v>
       </c>
       <c r="I46" t="n">
         <v>16.79515929533556</v>
@@ -34529,37 +34529,37 @@
         <v>39.48487117286113</v>
       </c>
       <c r="K46" t="n">
-        <v>64.88577261015368</v>
+        <v>64.88577261015367</v>
       </c>
       <c r="L46" t="n">
-        <v>83.03144955136571</v>
+        <v>83.0314495513657</v>
       </c>
       <c r="M46" t="n">
-        <v>87.54502168363693</v>
+        <v>87.54502168363692</v>
       </c>
       <c r="N46" t="n">
-        <v>85.46339674074476</v>
+        <v>85.46339674074474</v>
       </c>
       <c r="O46" t="n">
-        <v>78.93927954167997</v>
+        <v>78.93927954167995</v>
       </c>
       <c r="P46" t="n">
-        <v>67.54619082985012</v>
+        <v>67.5461908298501</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.76548133897698</v>
+        <v>46.76548133897697</v>
       </c>
       <c r="R46" t="n">
         <v>25.11150479889046</v>
       </c>
       <c r="S46" t="n">
-        <v>9.732865891523051</v>
+        <v>9.732865891523049</v>
       </c>
       <c r="T46" t="n">
         <v>2.386252983315511</v>
       </c>
       <c r="U46" t="n">
-        <v>0.03046280404232572</v>
+        <v>0.03046280404232571</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34719,7 +34719,7 @@
         <v>109.2184856369541</v>
       </c>
       <c r="Q2" t="n">
-        <v>4.059542658712616</v>
+        <v>4.059542658712711</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>7.467990754025152</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>140.6484434930818</v>
       </c>
       <c r="L3" t="n">
-        <v>250.5834388302202</v>
+        <v>199.9590986266935</v>
       </c>
       <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
         <v>274.2838073416025</v>
-      </c>
-      <c r="N3" t="n">
-        <v>201.1341951806804</v>
       </c>
       <c r="O3" t="n">
         <v>270.5854737144654</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>200.5762321565626</v>
       </c>
       <c r="Q3" t="n">
-        <v>81.99814951141209</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35020,22 +35020,22 @@
         <v>140.6484434930818</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>250.5834388302202</v>
       </c>
       <c r="M6" t="n">
-        <v>110.4929583612564</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="N6" t="n">
-        <v>274.2838073416025</v>
+        <v>142.4839011990109</v>
       </c>
       <c r="O6" t="n">
         <v>270.5854737144654</v>
       </c>
       <c r="P6" t="n">
-        <v>200.5762321565626</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>81.99814951141209</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35251,10 +35251,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>7.467990754025152</v>
       </c>
       <c r="K9" t="n">
-        <v>8.025953778143283</v>
+        <v>8.84853735049013</v>
       </c>
       <c r="L9" t="n">
         <v>250.5834388302202</v>
@@ -35263,16 +35263,16 @@
         <v>274.2838073416025</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="O9" t="n">
         <v>270.5854737144654</v>
       </c>
       <c r="P9" t="n">
-        <v>200.5762321565626</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>81.99814951141209</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35418,19 +35418,19 @@
         <v>400.9729937182839</v>
       </c>
       <c r="M11" t="n">
-        <v>461.5256681281614</v>
+        <v>461.5256681281613</v>
       </c>
       <c r="N11" t="n">
-        <v>453.3197218150999</v>
+        <v>453.3197218150998</v>
       </c>
       <c r="O11" t="n">
-        <v>381.4626643702567</v>
+        <v>381.4626643702566</v>
       </c>
       <c r="P11" t="n">
         <v>288.2576462984487</v>
       </c>
       <c r="Q11" t="n">
-        <v>138.5104960466976</v>
+        <v>138.5104960466975</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,19 +35488,19 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>70.40534134273584</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>248.2184001629003</v>
       </c>
       <c r="L12" t="n">
-        <v>395.2245205299613</v>
+        <v>395.2245205299612</v>
       </c>
       <c r="M12" t="n">
         <v>514.5419032905515</v>
       </c>
       <c r="N12" t="n">
-        <v>524.7048705976756</v>
+        <v>543.714571154376</v>
       </c>
       <c r="O12" t="n">
         <v>429.0814793495699</v>
@@ -35509,7 +35509,7 @@
         <v>327.7832499334201</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>51.39564078603548</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35570,7 +35570,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>50.11136289232033</v>
+        <v>50.11136289232032</v>
       </c>
       <c r="L13" t="n">
         <v>120.492579780375</v>
@@ -35585,7 +35585,7 @@
         <v>113.507487571651</v>
       </c>
       <c r="P13" t="n">
-        <v>73.66821272853396</v>
+        <v>73.66821272853394</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35725,13 +35725,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>70.40534134273582</v>
+        <v>51.3956407860353</v>
       </c>
       <c r="K15" t="n">
         <v>248.2184001629003</v>
       </c>
       <c r="L15" t="n">
-        <v>209.1821478522283</v>
+        <v>395.2245205299612</v>
       </c>
       <c r="M15" t="n">
         <v>514.5419032905515</v>
@@ -35746,7 +35746,7 @@
         <v>327.7832499334201</v>
       </c>
       <c r="Q15" t="n">
-        <v>167.0326721210326</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35962,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>70.40534134273582</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>248.2184001629003</v>
@@ -35974,7 +35974,7 @@
         <v>514.5419032905515</v>
       </c>
       <c r="N18" t="n">
-        <v>357.6721984766432</v>
+        <v>543.714571154376</v>
       </c>
       <c r="O18" t="n">
         <v>429.0814793495699</v>
@@ -35983,7 +35983,7 @@
         <v>327.7832499334201</v>
       </c>
       <c r="Q18" t="n">
-        <v>167.0326721210326</v>
+        <v>51.39564078603548</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36199,10 +36199,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>70.40534134273582</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>62.17602748516736</v>
+        <v>248.2184001629003</v>
       </c>
       <c r="L21" t="n">
         <v>395.2245205299612</v>
@@ -36220,7 +36220,7 @@
         <v>327.7832499334201</v>
       </c>
       <c r="Q21" t="n">
-        <v>167.0326721210326</v>
+        <v>51.39564078603548</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36442,7 +36442,7 @@
         <v>248.2184001629003</v>
       </c>
       <c r="L24" t="n">
-        <v>376.2148199732607</v>
+        <v>395.2245205299612</v>
       </c>
       <c r="M24" t="n">
         <v>514.5419032905515</v>
@@ -36454,7 +36454,7 @@
         <v>429.0814793495699</v>
       </c>
       <c r="P24" t="n">
-        <v>327.7832499334201</v>
+        <v>308.7735493767197</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>70.40534134273582</v>
       </c>
       <c r="K27" t="n">
         <v>248.2184001629003</v>
@@ -36685,7 +36685,7 @@
         <v>514.5419032905515</v>
       </c>
       <c r="N27" t="n">
-        <v>543.714571154376</v>
+        <v>357.6721984766432</v>
       </c>
       <c r="O27" t="n">
         <v>429.0814793495699</v>
@@ -36694,7 +36694,7 @@
         <v>327.7832499334201</v>
       </c>
       <c r="Q27" t="n">
-        <v>51.39564078603548</v>
+        <v>167.0326721210326</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>70.40534134273582</v>
+        <v>51.3956407860353</v>
       </c>
       <c r="K30" t="n">
         <v>248.2184001629003</v>
@@ -36928,7 +36928,7 @@
         <v>429.0814793495699</v>
       </c>
       <c r="P30" t="n">
-        <v>308.7735493767197</v>
+        <v>327.7832499334201</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>51.3956407860353</v>
       </c>
       <c r="K33" t="n">
         <v>248.2184001629003</v>
@@ -37168,7 +37168,7 @@
         <v>327.7832499334201</v>
       </c>
       <c r="Q33" t="n">
-        <v>51.39564078603548</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37396,13 +37396,13 @@
         <v>514.5419032905515</v>
       </c>
       <c r="N36" t="n">
-        <v>543.714571154376</v>
+        <v>357.6721984766432</v>
       </c>
       <c r="O36" t="n">
         <v>429.0814793495699</v>
       </c>
       <c r="P36" t="n">
-        <v>141.7408772556873</v>
+        <v>327.7832499334201</v>
       </c>
       <c r="Q36" t="n">
         <v>167.0326721210326</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>70.40534134273582</v>
       </c>
       <c r="K39" t="n">
         <v>248.2184001629003</v>
@@ -37633,7 +37633,7 @@
         <v>514.5419032905515</v>
       </c>
       <c r="N39" t="n">
-        <v>543.714571154376</v>
+        <v>357.6721984766432</v>
       </c>
       <c r="O39" t="n">
         <v>429.0814793495699</v>
@@ -37642,7 +37642,7 @@
         <v>327.7832499334201</v>
       </c>
       <c r="Q39" t="n">
-        <v>51.39564078603548</v>
+        <v>167.0326721210326</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37788,19 +37788,19 @@
         <v>400.9729937182839</v>
       </c>
       <c r="M41" t="n">
-        <v>461.5256681281614</v>
+        <v>461.5256681281613</v>
       </c>
       <c r="N41" t="n">
-        <v>453.3197218150999</v>
+        <v>453.3197218150998</v>
       </c>
       <c r="O41" t="n">
-        <v>381.4626643702564</v>
+        <v>381.4626643702566</v>
       </c>
       <c r="P41" t="n">
         <v>288.2576462984487</v>
       </c>
       <c r="Q41" t="n">
-        <v>138.5104960466976</v>
+        <v>138.5104960466975</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37858,16 +37858,16 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>70.40534134273584</v>
+        <v>51.3956407860353</v>
       </c>
       <c r="K42" t="n">
         <v>248.2184001629003</v>
       </c>
       <c r="L42" t="n">
-        <v>395.2245205299613</v>
+        <v>395.2245205299612</v>
       </c>
       <c r="M42" t="n">
-        <v>328.4995306128181</v>
+        <v>514.5419032905515</v>
       </c>
       <c r="N42" t="n">
         <v>543.714571154376</v>
@@ -37879,7 +37879,7 @@
         <v>327.7832499334201</v>
       </c>
       <c r="Q42" t="n">
-        <v>167.0326721210326</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37940,7 +37940,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>50.11136289232033</v>
+        <v>50.11136289232032</v>
       </c>
       <c r="L43" t="n">
         <v>120.492579780375</v>
@@ -37955,7 +37955,7 @@
         <v>113.507487571651</v>
       </c>
       <c r="P43" t="n">
-        <v>73.66821272853396</v>
+        <v>73.66821272853394</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38025,19 +38025,19 @@
         <v>400.9729937182839</v>
       </c>
       <c r="M44" t="n">
-        <v>461.5256681281614</v>
+        <v>461.5256681281613</v>
       </c>
       <c r="N44" t="n">
-        <v>453.3197218150999</v>
+        <v>453.3197218150998</v>
       </c>
       <c r="O44" t="n">
-        <v>381.4626643702567</v>
+        <v>381.4626643702566</v>
       </c>
       <c r="P44" t="n">
         <v>288.2576462984487</v>
       </c>
       <c r="Q44" t="n">
-        <v>138.5104960466976</v>
+        <v>138.5104960466975</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38095,13 +38095,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>70.40534134273584</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>248.2184001629003</v>
       </c>
       <c r="L45" t="n">
-        <v>395.2245205299613</v>
+        <v>395.2245205299612</v>
       </c>
       <c r="M45" t="n">
         <v>514.5419032905515</v>
@@ -38113,10 +38113,10 @@
         <v>429.0814793495699</v>
       </c>
       <c r="P45" t="n">
-        <v>141.7408772556869</v>
+        <v>327.7832499334201</v>
       </c>
       <c r="Q45" t="n">
-        <v>167.0326721210326</v>
+        <v>51.39564078603548</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38177,7 +38177,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>50.11136289232033</v>
+        <v>50.11136289232032</v>
       </c>
       <c r="L46" t="n">
         <v>120.492579780375</v>
@@ -38192,7 +38192,7 @@
         <v>113.507487571651</v>
       </c>
       <c r="P46" t="n">
-        <v>73.66821272853396</v>
+        <v>73.66821272853394</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
